--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -15,96 +15,350 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="395">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>@tesla @kirillklip nickel, cobalt &amp;amp; even some copper to build your batteries etc? meet the developed world’s larges… https://t.co/nblbdgrfid</t>
-  </si>
-  <si>
-    <t>@elonmusk @tesla hepa filter ftw!</t>
-  </si>
-  <si>
-    <t>rt @elonmusk: @tesla in close traffic, poisonous gas spewing from the car in front of you goes straight into your ac intake. good thing gas…</t>
-  </si>
-  <si>
-    <t>tesla will now rent solar panels to homeowners https://t.co/ykvzbcyxjj https://t.co/jgbrx0knrk</t>
-  </si>
-  <si>
-    <t>rt @renatakonkoly: @elonmusk @tesla i know it's not a real quote, but it's funny 😂 https://t.co/9xzlsxs3h3</t>
+    <t>rt @bectcomputing: tesla's use of individual driver data for insurance 'state-by-state proposition' - reuters https://t.co/gxyp9wj66g https…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash - https://t.co/njje28mbph</t>
+  </si>
+  <si>
+    <t>@webmz_ yes! hope tesla is ok! i have a ridiculously complicated medication routine because i have a cat on chemo and an extremely anxious dog with back problems... my life revolves around their complicated issues.</t>
+  </si>
+  <si>
+    <t>rt @threadreaderapp: @jerviscapital saluti please find the unroll here: thread by @cppinvest: "1/ tesla surprised everyone in late 2012 wit…</t>
+  </si>
+  <si>
+    <t>@model3owners @elonmusk excludes usa and china, but yeah, still mightily impressive to see tesla moving forward with their products in canada.</t>
+  </si>
+  <si>
+    <t>@markets @business tesla made and delivered more cars in the second quarter of 2019 than it did in any other quarter in company history, but still lost $408 million. please explain why its stock is ridiculously overvalued. even better, calculate the true cost of a tesla. i’m guessing ~ $500,000.</t>
+  </si>
+  <si>
+    <t>@28delayslater really creating a tesla killer this time, just wait, we know what we are doing https://t.co/gnh105v82v</t>
+  </si>
+  <si>
+    <t>@konrad_bilinski @arctechinc wow. not sure but i can already see tslaq going wild if this was tesla. @danahull @lorakolodny @nealboudette would be all over it like flies on a carcass.</t>
+  </si>
+  <si>
+    <t>tesla and time travel : conspiracy https://t.co/27g16x14vq</t>
+  </si>
+  <si>
+    <t>the island of kauai hawaii powered by solar panels and power stacks by solarcity and tesla
+ https://t.co/2lnhyncmcc</t>
+  </si>
+  <si>
+    <t>» tesla owners locked out of cars as app goes down – investment watch https://t.co/lw9kavdpzp</t>
+  </si>
+  <si>
+    <t>i agree that ice cars are ancient technology. https://t.co/hgxkdd7vbb</t>
+  </si>
+  <si>
+    <t>my 6 year-old model s p85 w/149,000 miles is way better than any new ice i could buy across every single dimension.  if you are in the market for a car, test drive a tesla s|3|x and you’ll know why @andrewyang  said “electric cars are awesome”.  #yanggang https://t.co/wodtfta6dn</t>
+  </si>
+  <si>
+    <t>rt @40_head: @winstonbrown84 @potus you must not know much about tesla...his situation is tied directly to secret societies, government cov…</t>
+  </si>
+  <si>
+    <t>starting price 150k. is that a joke?! #tesla #modelswaybetter https://t.co/wzairr4pkv</t>
+  </si>
+  <si>
+    <t>@forbes they should recall cruise control while they’re at it as it cause more deaths. has far worse safety record per miles used. personally, i think the amish are the only ones to get it right with autopilot. @28delayslater @tesla_truth @alterviggo https://t.co/gw8om3f30x</t>
+  </si>
+  <si>
+    <t>@coreysfilms @oga_timi @mkbhd you're paying for reliability. tesla's have appauling reliability. estimated between 40-50%. porsche you're basically guaranteed reliability</t>
+  </si>
+  <si>
+    <t>@655_slider @xenius101 @tesla @smmt if @smmt didn't break out tesla from next month, it would certainly raise questions about why not. frankly even this month it looks stupid to say "other" model came third. https://t.co/uvmua4rdsy</t>
+  </si>
+  <si>
+    <t>rt @bw: porsche unveiled its first-ever electric car in its battle to steal a market that tesla built https://t.co/gplf7bpv36</t>
+  </si>
+  <si>
+    <t>@jpthor__ @tesla bitcoin &amp;amp; banks having the same struggle.</t>
+  </si>
+  <si>
+    <t>rt @spectatorindex: most prestigious internships, 2018
+1. google
+2. apple
+3. facebook
+4. microsoft
+5. goldman sachs
+6. tesla motors
+7. ama…</t>
+  </si>
+  <si>
+    <t>@espenhandersen @alterviggo @elonmusk @tesla but the electricity used for electrolysis of water to split water into hydrogen and oxygen comes from clean renewables like solar, wind etc unlike the electicity provided by tesla's chargers that are sourced from standard power plants combusting highly polluting crude or coal.</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/k4colupdh7 https://t.co/nrxyxlkz4u</t>
+  </si>
+  <si>
+    <t>one way we can reduce our emissions and slow the melting of the arctic would be switching to hybrid or electric cars like @tesla 🚙 ⚡️ #savethearctic</t>
   </si>
   <si>
     <t>rt @40_head: mr @potus, when are we going to find out what really happened to nikola tesla and his free energy projects?
 will we ever know?</t>
   </si>
   <si>
-    <t>tesla autopilot design 'led to' crash: the design of tesla's autopilot system and "driver inattention" led to a cra… https://t.co/dav1ev6awd</t>
-  </si>
-  <si>
-    <t>tesla up qoq in germany also!
-#tesla
-#tsla https://t.co/19qegph31i</t>
-  </si>
-  <si>
-    <t>@bbctech so the tl:dr is the guy stopped paying attention to the road, against what tesla says to do and he drove i… https://t.co/cpv310flqa</t>
-  </si>
-  <si>
-    <t>rt @alterviggo: "the oil industry has never before in its history faced the kind of threat that renewable electricity in tandem with electr…</t>
-  </si>
-  <si>
-    <t>@scottwww @evnewsdaily @crackedw_screen a couldn't agree more, but whatever the reason is for some buying a tesla,… https://t.co/4u6tuixqar</t>
-  </si>
-  <si>
-    <t>rt @hamids: here's the thing: i want @porsche #taycan to be a huge success because i want the world to transition to evs. but when you are…</t>
-  </si>
-  <si>
-    <t>@winojimbow @caranddriver @tesla it’s possible, i’ve seen it done.</t>
-  </si>
-  <si>
-    <t>rt @markusrothmlle1: waiting for plans when @tesla moves into service. just had another disappointing service experience.</t>
-  </si>
-  <si>
-    <t>@tesla when my car broke down and swedish tax laws made it cheaper to get a tesla.</t>
+    <t>rt @robfarago: uk bev sales was 3.4% in august.  first couple of months of tesla model 3 have just occurred. https://t.co/naaitiukkm</t>
+  </si>
+  <si>
+    <t>rt @elonmusk: @tesla in close traffic, poisonous gas spewing from the car in front of you goes straight into your ac intake. good thing gas…</t>
+  </si>
+  <si>
+    <t>rt @beaxyexchange: three amazing deals at beaxy right now;
+🚀 trade to win a tesla
+🗣 refer a friend for 50% fee bonus
+💸 deposit to earn $…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/rl12nud6bx</t>
+  </si>
+  <si>
+    <t>@auto_schmidt @markbspiegel @tesla they are coming in now, 
+and what about new leaf https://t.co/poslwgv1tc</t>
+  </si>
+  <si>
+    <t>rt @maloryvague: endearing moments like when @petebuttigieg says he can’t afford a @tesla but still bought a hybrid serves as a reminder th…</t>
+  </si>
+  <si>
+    <t>rt @teslapodcast: comparing the 2020 @porsche #taycan with the 2015 @tesla #models and tesla's current model s. $tsla @elonmusk #tesla #por…</t>
+  </si>
+  <si>
+    <t>@elonmusk spoken like a rich man keep making the tesla name proud</t>
+  </si>
+  <si>
+    <t>u.s. insurers say they currently do not have sufficient data to validate auto industry promises of safety benefits from automated driving systems
+another big data advantage! $tsla @tesla #tesla @tesla_truth @jpr007 @valueanalyst1 https://t.co/jxzoyashbj</t>
+  </si>
+  <si>
+    <t>elon musk: tesla to build world’s largest lithium ion battery in south australia
+https://t.co/hq6b83qfqz</t>
+  </si>
+  <si>
+    <t>rt @clearcover: thanks @cheddar for having us on today to chat about the launch of @tesla's car insurance and how it affects the #autoinsur…</t>
+  </si>
+  <si>
+    <t>@auto_schmidt @tesla so in june "others" was how much? (it should have been only a few hundred.)</t>
+  </si>
+  <si>
+    <t>@elonmusk i don't have tesla right now 
+but i undoubtedly know that 
+it will be my first car!!
+p.s. when a offer comes try to grab it asap, because after a while you will come to know those who have claimed it, are getting something good.</t>
+  </si>
+  <si>
+    <t>@fromthewalls @tweetertweaker @tesla @elonmusk well, actually, officially, in the eyes of the law and tesla's owner manuals... you are responsible for it all. how does that make you feel?
+hint: machines don't try to do anything. they just do exactly what they are told to do.
+$tslaq</t>
+  </si>
+  <si>
+    <t>@realchaozhou so you're just an *official* tesla mouthpiece now. what is your compensation?</t>
+  </si>
+  <si>
+    <t>@gaminnorwegian @dece19th @mkbhd tesla giving out review or loaners is advertising. not to mention the ads they've got all over the uk, as they're selling awful here. 
+i've yet to see a tesla without an issue too. good tech but not a good company or car brand</t>
+  </si>
+  <si>
+    <t>rt @telebusiness: #tesla's mass market electric car, the model 3, was britain's third-biggest selling vehicle last month – beaten only by f…</t>
+  </si>
+  <si>
+    <t>rt @alex_avoigt: most innovative automotive companies according to cam at the 🇩🇪 university of bergisch gladbach
+since years everybody sai…</t>
+  </si>
+  <si>
+    <t>rt @anonymouscynic: 1/ thread with speculation regarding $tsla's next capital raise:
+during the 2019 annual tesla shareholder meeting in j…</t>
+  </si>
+  <si>
+    <t>@alhajajemohamed tesla who ?? https://t.co/fpcnlm5x0f</t>
+  </si>
+  <si>
+    <t>rt @gora321: u.s. insurers say they currently do not have sufficient data to validate auto industry promises of safety benefits from automa…</t>
+  </si>
+  <si>
+    <t>@jcreindl @foxnews @dailymailuk when you guys are extolling the virtues of @pulte did you ask him where the oversight is? who is auditing these contests? when he has followers rt, these are contests and taxes must be paid. how are these “needy” paying taxes on @tesla @bitcoin?</t>
+  </si>
+  <si>
+    <t>rt @tesla_truth: tesla already sells more cars than porsche globally, today  
+and yet, when porsche unveils their first ev for $185,000 it…</t>
+  </si>
+  <si>
+    <t>the tesla model 3 is now 100% vegan | livekindly #www.globalenergypost.com https://t.co/cr057uansn</t>
+  </si>
+  <si>
+    <t>@tesla_truth right?!</t>
+  </si>
+  <si>
+    <t>tesla knew the anti gravity matters is air pressure. the journal was burned down to ashes. https://t.co/gdzpplbrhi</t>
+  </si>
+  <si>
+    <t>@s100dfan this absolutely won't turn tesla buyers towards a porsche but it will turn the heads of potential porsche ice buyers to ev. therefore, tesla don't lose out on a single sale, and more evs get sold ∴ elon's mission is coming true. he's advancing sustainable transport.</t>
+  </si>
+  <si>
+    <t>tesla will now rent solar panels to homeowners https://t.co/ykvzbcyxjj https://t.co/jgbrx0knrk</t>
+  </si>
+  <si>
+    <t>rt @renatakonkoly: @elonmusk @tesla i know it's not a real quote, but it's funny 😂 https://t.co/9xzlsxs3h3</t>
+  </si>
+  <si>
+    <t>rt @skorusark: the porsche taycan is pretty good, but it still trails the 7 year old tesla model s.
+the model s has almost 100 miles of ex…</t>
+  </si>
+  <si>
+    <t>rt @allathleteso: this video will never get old 💀 https://t.co/0dtajn8kdz</t>
+  </si>
+  <si>
+    <t>rt @orthereaboot: based on $tsla “expert” in tripp case, claims against musk / electrek et al wld be stronger multiple times a week for man…</t>
+  </si>
+  <si>
+    <t>@auto_schmidt @tesla that's as expected (6000-8000 for the quarter) but why is "other" all model 3? are you sure "other" isn't a combination of all cars not specifically listed?</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/qy5lphhvce</t>
+  </si>
+  <si>
+    <t>@1loafofmeat it’s ridiculous
+you would think a $185,000 car should include the stuff a $39k tesla has standard, but it doesn’t. 
+instead, they charge a kidney for it https://t.co/3ahm4kic9p</t>
+  </si>
+  <si>
+    <t>back to school night too? 😩 jesus be a tesla so you can take the wheel while i sleep.</t>
+  </si>
+  <si>
+    <t>rt @elonmusknewsorg: tesla model 3 production line in gigafactory 3 china is coming to life  https://t.co/rhresgyrza</t>
+  </si>
+  <si>
+    <t>rt @edmunds: we went for a ride in the all-new @porsche taycan ev and got out with a singular thought: this is a tesla killer. https://t.co…</t>
+  </si>
+  <si>
+    <t>@benwaghorn @statsteslaapp @tesla i know the feeling!
+almost 1 year old lr awd model 3 https://t.co/jz3srbh84a</t>
+  </si>
+  <si>
+    <t>rt @tesla_truth: imagine if tesla did a car and delivered the first run $100,000 over what they said they would price it at 😂
+https://t.co…</t>
+  </si>
+  <si>
+    <t>@officialabq @elonmusk @tesla @teslaclubin using tesla logo and tesla-website??? this is fraud!</t>
+  </si>
+  <si>
+    <t>@ev_stevee @officialabq @elonmusk @tesla i am not using tesla logo. and everywhere it says unofficial.</t>
+  </si>
+  <si>
+    <t>@chefrossco01 @its_stationary what happened to the tesla guy?  i haven't seen anything from him in a while</t>
+  </si>
+  <si>
+    <t>rt @peta: have you heard? the model 3 is now completely leather-free!
+thank you @tesla and @elonmusk for making this compassionate and pro…</t>
+  </si>
+  <si>
+    <t>tesla &amp;amp; co. are getting more and more efficient: oil prices have to go down so that burners stay competitive | 5:09:19 https://t.co/tres0jk9u2</t>
+  </si>
+  <si>
+    <t>@ethelreddy1 @scot_work @tesla @elonmusk in reality this is ur lucky day.
+#tesladeliveryissues
+if u r still considering it will get an order of magnitude worse.
+#teslaqualityissues 
+#teslaserviceissues 
+don't get eloned bro!</t>
+  </si>
+  <si>
+    <t>rt @28delayslater: “it’s disheartening to see every other premium bev coming to market with such relatively poor energy efficiency compared…</t>
+  </si>
+  <si>
+    <t>rt @harrismonkey: fears taycan would look ropey minus-camo totally unfounded. it’s stunning. seems pretty expensive, but suspect it’s unlik…</t>
+  </si>
+  <si>
+    <t>@lloydwaldo @hawkins4gabriel @edmunds @porsche because i don’t like people misconstruing a false narrative of what an owner of the car like myself is actually experiencing. if tesla is a fraud, they are working harder than legitimate companies to create an incredible product that’s leaps and bounds ahead in value.</t>
+  </si>
+  <si>
+    <t>rt @elonmusk: @justpaulinelol @tesla same, except where limited by eu regulations. we’re aware of extreme consumer unhappiness about this &amp;amp;…</t>
+  </si>
+  <si>
+    <t>@hiltonholloway @markbspiegel @tesla @smmt yeah that’s true</t>
+  </si>
+  <si>
+    <t>@tesla yes and i wish i could afford one of your cars one day. in my eyes y'all are the best ones out there and thank you for what you do &amp;lt;3</t>
+  </si>
+  <si>
+    <t>@s100dfan i wish every tesla fan was as reasonable as you. i've had people tell me to day i was wrong to have made a podcast about it because it's not as good as a model s. which is nuts. model s is incredible. but so is the taycan.</t>
+  </si>
+  <si>
+    <t>@officialabq @barkmsmeagol that soft swiping motion is actually the same he used in the video to open the door of his tesla. 😅</t>
+  </si>
+  <si>
+    <t>@bbctech so the tl:dr is the guy stopped paying attention to the road, against what tesla says to do and he drove into a parked fire engine
+that's like saying 'cars 'design' led to crash' when someone just accelerates then stops paying attention and hits something 🙄</t>
+  </si>
+  <si>
+    <t>the full electric tesla semi truck: a beast by tesla
+ https://t.co/ptxd3wr1zv</t>
+  </si>
+  <si>
+    <t>some good stuff in here besides the neuralink, tesla, alibaba plugs: seems like if #agi and space travel are x (say 100+) years away, humanity’s challenge is to survive that period x without an existential event https://t.co/kiiil6vvg3</t>
+  </si>
+  <si>
+    <t>@zareldo i always say "if you don't like a tesla, just get a mercedes"</t>
+  </si>
+  <si>
+    <t>@tesla @elonmusk when is it gonna arrive in india sir ?</t>
+  </si>
+  <si>
+    <t>the next tesla: the all electric walk-in van (wiv)
+ https://t.co/zoa8rng3lw</t>
+  </si>
+  <si>
+    <t>@riddlejt4 if you are referring to s&amp;amp;p aths yes but tesla won't catch that strong of a bid in my opinion.</t>
+  </si>
+  <si>
+    <t>100% percent agreed.....every time i see porsche promoting their new taycan...it actually makes me happy...because porsche’s promoting actually shows what great cars teslas are...you don’t have to be a *rich person* to own a tesla...you can just be a regular everyday person! https://t.co/w1memeqy4i</t>
+  </si>
+  <si>
+    <t>anyone else feel all fancy n shit when they eat cross ants.</t>
+  </si>
+  <si>
+    <t>rt @elonmusk: try tesla insurance. should be ~20% less than avg. currently only in california, but expanding soon. critical feedback much a…</t>
+  </si>
+  <si>
+    <t>rt @auto_schmidt: .@tesla model 3 was the third best selling new passenger car model in the uk in august with 2,082 registrations under its…</t>
+  </si>
+  <si>
+    <t>@tesla @kirillklip nickel, cobalt &amp;amp; even some copper to build your batteries etc? meet the developed world’s largest undeveloped resource: $arl.ax even some gold &amp;amp; silver to hedge your bet!</t>
+  </si>
+  <si>
+    <t>rt @yunggravy: i have capacity concerns https://t.co/blcrvnprdf</t>
+  </si>
+  <si>
+    <t>rt @profbjerke: so long, bundled aaa. hello tesla insurance. my savings is just over 30% with comparable coverage. thanks! 🙌 https://t.co/f…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash
+https://t.co/xdwm0xaetl
+the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018.  ... https://t.co/dasa3lpheo</t>
   </si>
   <si>
     <t>rt @bbctech: tesla autopilot design 'led to' crash https://t.co/xhpmvoliel</t>
   </si>
   <si>
-    <t>people prefer tesla model s to porsche taycan in latest survey https://t.co/pnvmuxe10t</t>
-  </si>
-  <si>
-    <t>rt @kirillklip: #theswitch #electriccars are expected to drive #copper demand. the exponential growth of #evs sales meets mining industry c…</t>
-  </si>
-  <si>
-    <t>tesla's use of customer data to price insurance will depend on us state laws https://t.co/dkimtbxbqe</t>
-  </si>
-  <si>
-    <t>@viralmnews timed perfectly to #taycan launch ntsb slams recent @tesla’s injury free accident with watchdog group r… https://t.co/gurmgpcgqx</t>
-  </si>
-  <si>
-    <t>"when something is important enough, you do it, even if the odds are not in your favor. "
-elon musk
-#musk #elonmusk… https://t.co/wbp5hsmknv</t>
-  </si>
-  <si>
-    <t>rt @robfarago: uk bev sales was 3.4% in august.  first couple of months of tesla model 3 have just occurred. https://t.co/naaitiukkm</t>
-  </si>
-  <si>
-    <t>@tesla any idea how to contact your uk offices about a refund. was due within 45 business days, not received. telep… https://t.co/qwzaqybjxp</t>
-  </si>
-  <si>
-    <t>@pattyarquette @malcolmnance um, true about trump, but the porsche is not right example. 
-@tesla is crushing evs w… https://t.co/kwwax5parn</t>
-  </si>
-  <si>
-    <t>@jcreindl @foxnews @dailymailuk when you guys are extolling the virtues of @pulte did you ask him where the oversig… https://t.co/uooxpwpxjf</t>
-  </si>
-  <si>
-    <t>new post: tesla model 3 was august's third best-selling car https://t.co/qvmypv2dtg</t>
-  </si>
-  <si>
-    <t>rt @mfrunker: maxpider 3d floor mats review | tesla model 3 accessories https://t.co/p1aqu6hf0d</t>
+    <t>@viralmnews timed perfectly to #taycan launch ntsb slams recent @tesla’s injury free accident with watchdog group recall demanded meanwhile antique cruise control causes more deaths but they’re not tesla’s so incidents aren’t plastered over every news site. https://t.co/r6zkghyywh</t>
+  </si>
+  <si>
+    <t>rt @teslarati: the porsche taycan is no ‘tesla killer:’ it’s proof that elon musk’s electric car mission is moving forward
+https://t.co/oty…</t>
+  </si>
+  <si>
+    <t>one of the top upvoted posts on the conspiracy subreddit in the past 24 hours argues that barron trump is from the 1890s and used a time machine from nikola tesla to travel to the future. https://t.co/zf8rmqgf5i</t>
+  </si>
+  <si>
+    <t>rt @opinionsshiz: let’s not forget she made 30k off her presets and 11k off her children’s book alone. if she saved her money or invested s…</t>
+  </si>
+  <si>
+    <t>tesla's use of individual driver data for insurance 'state-by-state proposition' https://t.co/lzgmgzoagr</t>
   </si>
   <si>
     <t>electric trucks will being us into a new era!
@@ -113,138 +367,361 @@
 tesla pickup truck https://t.co/twireowwu3</t>
   </si>
   <si>
-    <t>rt @elonmusknewsorg: tesla model 3 production line in gigafactory 3 china is coming to life  https://t.co/rhresgyrza</t>
-  </si>
-  <si>
-    <t>rt @yunggravy: i have capacity concerns https://t.co/blcrvnprdf</t>
+    <t>rt @nytimes: an easter egg on the wordpress site is so hidden, fewer than a dozen people have ever found it, co-creator matt mullenweg said…</t>
+  </si>
+  <si>
+    <t>rt @mrtybaba: lmao... tit for tat... sharp guy 😂😂😂😂https://t.co/46azq7zlgv</t>
+  </si>
+  <si>
+    <t>rt @insideevs: survey: people still prefer aging tesla model s over porsche taycan https://t.co/ng1wv7ixju via @insideevs.com</t>
   </si>
   <si>
     <t>@teslaclubin  they can not match the price that tesla offers! https://t.co/9fjfp3pktx</t>
   </si>
   <si>
-    <t>rt @nickgibbs: amusing that the tesla model 3, the uk's third best selling car for august (!), is labelled other in the smmt top 10, presum…</t>
-  </si>
-  <si>
-    <t>tesla is now having to cope with a number of existing and new competitors coming to market with more modern and agg… https://t.co/oau74jrfju</t>
-  </si>
-  <si>
-    <t>#tesla's mass market electric car, the model 3, was britain's third-biggest selling vehicle last month – beaten onl… https://t.co/1smilxxseq</t>
-  </si>
-  <si>
-    <t>i get it porsche is a chick magnet. but eventually girls will start noticing it has an inferior performance compare… https://t.co/0l1zqnfole</t>
-  </si>
-  <si>
-    <t>in aug. there were 2082 model 3 uk registrations.
-(on smmt's top 10 list model 3 is listed as "other" -- they need… https://t.co/mmmyuxt3nx</t>
-  </si>
-  <si>
-    <t>@tesla yes and i wish i could afford one of your cars one day. in my eyes y'all are the best ones out there and thank you for what you do &amp;lt;3</t>
-  </si>
-  <si>
-    <t>rt @auto_schmidt: .@tesla model 3 was the third best selling new passenger car model in the uk in august with 2,082 registrations under its…</t>
-  </si>
-  <si>
-    <t>rt @spotted_model: @dennis_p @iluvamp @domenick_y @tesla @porsche yup 2 of my friends will become ev lovers bc of #taycan.  one’s trading i…</t>
-  </si>
-  <si>
-    <t>@ethelreddy1 @tesla @elonmusk elon doesn't care about service full stop, and certainly not about you, your order or… https://t.co/o1y0dthxvk</t>
-  </si>
-  <si>
-    <t>@markbspiegel @tesla trust me, i’ve been doing this for a long time.
-aug in the uk is one of slowest months due to… https://t.co/bodvygyt6w</t>
-  </si>
-  <si>
-    <t>rt @alex_avoigt: most innovative automotive companies according to cam at the 🇩🇪 university of bergisch gladbach
-since years everybody sai…</t>
-  </si>
-  <si>
-    <t>@pollstesla @tesla_truth @bagholderquotes a twitter account created to badger tesla, lol yeah i am the noise 😂 like… https://t.co/x3xi5w2udv</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/xhpmvoliel</t>
+    <t>rt @mymodl3: i’m not really a fan of orange but i have to admit i love this wrap! annato-orange limited no. 49 #wrapwednesday. #365model3 p…</t>
+  </si>
+  <si>
+    <t>rt @inastialu: hey, @elonmusk
+greetings from belarus 🇧🇾
+i am belarusian girl and i'm  lukashenko too,but not alexander, but who cares.
+of c…</t>
+  </si>
+  <si>
+    <t>$tsla investors are so caught up in the whole china-usa talks that they trade the news and forget that it really doesn't matter and tesla can't make money even with record deliveries.
+$tslaq</t>
+  </si>
+  <si>
+    <t>rt @pulte: yes, we are the team (formerly called followers) giving away a tesla on the internet 😊 more giveaways soon.  video: https://t.co…</t>
   </si>
   <si>
     <t>tesla starts solar cell production at gigafactory 2 in buffalo
 https://t.co/cup3bqlzlq</t>
   </si>
   <si>
-    <t>@sheilagunnreid this is the same government offering rebates for $5000 so upper middle class canadians can purchase tesla's?</t>
-  </si>
-  <si>
-    <t>feds: design flaw in tesla autopilot, driver inattention caused calif․ crash https://t.co/qkjinjyecn</t>
+    <t>tesla autopilot design 'led to' crash https://t.co/ctdticqtea</t>
+  </si>
+  <si>
+    <t>@teslaownerssv @tesla exactly. the shots fired by @edmunds this week has also been kind of a bit alarming too the way they go out of their way to throw hella shade @tesla. kind of an odd week for the ev movement. and we have plenty of odd weeks.</t>
+  </si>
+  <si>
+    <t>@shobhanoffl @zonephysics hey..that song from adele
+not tesla!</t>
+  </si>
+  <si>
+    <t>rt @bernsteinyair: $tsla investors are so caught up in the whole china-usa talks that they trade the news and forget that it really doesn't…</t>
+  </si>
+  <si>
+    <t>@tesla consume less is the key. is tesla built with 0 carbon foot print? i guess not. easy to talk hard to practice.</t>
+  </si>
+  <si>
+    <t>@markbspiegel @tesla singular and not plural.
+i am 99.9% sure it is the model 3, makes total sense</t>
+  </si>
+  <si>
+    <t>me getting into my corolla that’s been parked next to my neighbor’s tesla https://t.co/zorf6suub0</t>
+  </si>
+  <si>
+    <t>rt @guhrace_roberts: ladies, it’s 2019 let’s not put each other down for no reason https://t.co/br6jnxcvsx</t>
+  </si>
+  <si>
+    <t>al of these giant motor corporations is leaving in the past. tesla doing a great job. actually only tesla doing a job.</t>
+  </si>
+  <si>
+    <t>@xenius101 @evnewsdaily @tesla the @smmt call @tesla other and electric vehicles, alternative fuelled vehicles. technically they’re electrically powered.</t>
+  </si>
+  <si>
+    <t>awesome - tesla autopilot design 'led to' crash https://t.co/pwv7vddkvk via bbc #agribusiness #investor #nigeria</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/xm8btslbvv https://t.co/yrgqvrhrur</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/kmxdxduuvv https://t.co/mvjupjldvk</t>
+  </si>
+  <si>
+    <t>@drsimevans @colinmckerrache @smmt this was completely down to tesla model 3. looks like it was the third best selling car in uk last month behind ford fiesta and be golf. appears as 'other' on the smmt best sellers list.</t>
+  </si>
+  <si>
+    <t>@tesla_truth apparently a lot</t>
+  </si>
+  <si>
+    <t>tesla sentry mode helps police in break-in — stop breaking into tesla cars! https://t.co/tdrlspgrzn via @fredericlambert</t>
+  </si>
+  <si>
+    <t>rt @vincent13031925: step 1️⃣: get a tesla car to save ⛽️ $
+step 2️⃣: get tesla insurance to save even more $ 
+step 3️⃣: get tesla solar…</t>
+  </si>
+  <si>
+    <t>people prefer tesla model s to porsche taycan in latest survey https://t.co/pnvmuxe10t</t>
+  </si>
+  <si>
+    <t>rt @au_tom_otive: tesla model 3 outsells (ok, outregisters) the ford focus in the uk in august.
+the ford focus.
+https://t.co/q7wgaur6bm</t>
+  </si>
+  <si>
+    <t>elon musk gives timeline for fully autonomous cars.
+https://t.co/3xmsweuoct
+#elonmusk #tesla #ai #autonomousvehicles</t>
+  </si>
+  <si>
+    <t>@dappgamingio @tesla @elonmusk @cs_commander @williamshatner we have to send a sportcoupe to the space too 😅</t>
+  </si>
+  <si>
+    <t>rt @nobenzine: @elonmusk @tesla thanks for the software update! would you please add 4th option: aero without wheel covers. so photo and es…</t>
+  </si>
+  <si>
+    <t>@tesla lead from cars also cause autism</t>
+  </si>
+  <si>
+    <t>most innovative automotive companies according to cam at the 🇩🇪 university of bergisch gladbach
+since years everybody said either 'tesla has no technology lead whatsoever' or 'well in the past they had but now the competition is coming
+the innovation gap is widening not closing https://t.co/wckzmd4upw</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/42krx8zbeq https://t.co/zdf3klcaqj</t>
+  </si>
+  <si>
+    <t>@idevicehelpus @mkbhd porsche (and all other manufacturers) didn’t do anything after witnessing the relative success of gm’s ev1 23 years ago! everybody just kept working on small incremental bullshit. yes, tesla forced a breakthrough like apple did.</t>
+  </si>
+  <si>
+    <t>how tesla's in-house insurance is disrupting the insurance industry https://t.co/fxblqaz286 via @cheddar</t>
+  </si>
+  <si>
+    <t>rt @idiotslncars: this guy asleep at the wheel of his tesla on the interstates https://t.co/srfbnt2mfi</t>
+  </si>
+  <si>
+    <t>rt @kirillklip: green energy metals and #revolution - reuters: "#tesla expects global shortage of electric vehicle battery minerals." https…</t>
+  </si>
+  <si>
+    <t>rt @tesla: model 3 interior is now 100% leather-free 🐄 https://t.co/2f47zp8a4t</t>
+  </si>
+  <si>
+    <t>rt @frontierleasing: lease a #tesla model 3 standard plus auto
+👉 https://t.co/ur7iaq12xs
+✅ only £319.99+vat per month 
+✅ 24 months (9+23 r…</t>
+  </si>
+  <si>
+    <t>rt @joesquawk: @glatran35 @cnbc i'm so sorry. so you own tesla stock? what can i do to make it up you. send me a list of all your long posi…</t>
+  </si>
+  <si>
+    <t>volkswagen needs 40 gigafactories for electric car batteries by 2025 https://t.co/0s8uuxr1br</t>
+  </si>
+  <si>
+    <t>@tesla on the autonomy day.... which is about the same time i realized i cannot afford one.</t>
+  </si>
+  <si>
+    <t>@tesla i completely agree with this, but have any studies been done on emf emissions from electric vechicles and the (long term) impact on it's passengers? i believe they (emf) are quite high inside the vechicle, any way to reduce this to 0? @elonmusk it's the only thing stopping me</t>
+  </si>
+  <si>
+    <t>#porschetaycan is the first proper challenger to tesla model s https://t.co/w3db3v2pz6 https://t.co/b2fiztknxd</t>
+  </si>
+  <si>
+    <t>rt @gerberkawasaki: its kind of insulting after all this time porsche comes out with a car that costs more than any porsche they have. how…</t>
+  </si>
+  <si>
+    <t>ahead of the curve: elon musk says 2 or 3 more tesla gigafactories are coming to the us https://t.co/evacjvj9f5</t>
+  </si>
+  <si>
+    <t>@vijaygovindan17 @andrewyang @zach_graumann went to a tesla meetup the other day and one of the guys there showed up wearing the math hat.  i was jealous, and also not surprised. :d</t>
+  </si>
+  <si>
+    <t>tesla is now having to cope with a number of existing and new competitors coming to market with more modern and aggressively priced vehicles. is the brand and investment in development going to be enough to cope? https://t.co/ai0qfv4mry https://t.co/ai0qfv4mry</t>
+  </si>
+  <si>
+    <t>rt @timeofcalamity: good morning! after reading an article yesterday from scientific america about the correlation between learning of the…</t>
+  </si>
+  <si>
+    <t>rt @cppinvest: 1/ tesla surprised everyone in late 2012 with the announcement it was building a global supercharger network.  that announce…</t>
+  </si>
+  <si>
+    <t>rt @teslatrey: just took the guy that sold me a phone  yesterday at best buy for a drive in my model 3. his first time being in a tesla.…</t>
+  </si>
+  <si>
+    <t>@alvinshen @tesla if you can buy this car the roadster may be within your each</t>
+  </si>
+  <si>
+    <t>another tesla owner is dead because of autopilot 
+https://t.co/ygstfdngdp  #tesla #autopilot #teslas #tech https://t.co/pcmaxa3i54</t>
+  </si>
+  <si>
+    <t>rt @djokernole: i visited tesla science centre in long island. i want to thank the wonderful people who welcomed me and showed me around. i…</t>
+  </si>
+  <si>
+    <t>@40_head @potus potus' uncle got tesla's files from his apartment after his death. potus has it all.</t>
+  </si>
+  <si>
+    <t>tesla energy is getting serious: a battery powered world by tesla https://t.co/aslmwo3lo3</t>
+  </si>
+  <si>
+    <t>rt @dennis_p: fellow @tesla fans, the launch of the @porsche #taycan is an event to celebrate! remember: "tesla’s mission is to accelerate…</t>
+  </si>
+  <si>
+    <t>@cryptogirl_girl @justinsuntron @cz_binance if it is like the tesla giveaway then the phone is probably used</t>
+  </si>
+  <si>
+    <t>@auto_schmidt @tesla we have seen the bust in every market, and what happened shortly after..</t>
+  </si>
+  <si>
+    <t>i get it porsche is a chick magnet. but eventually girls will start noticing it has an inferior performance compared to the king of performance automotives - tesla. it’s merely a fancy name now when compared to tesla, and is basking on its past achievements. https://t.co/3nw1l5klrr</t>
+  </si>
+  <si>
+    <t>@auto_schmidt @tesla so you're saying that all other cars (ferrari, lotus, etc.) are listed separately and "other" isn't a combination of models that sell too little to list separately?
+how many "other" were in june? as there were no model 3s then, it should be "zero."</t>
+  </si>
+  <si>
+    <t>rt @petercampbell1: amazing - tesla model 3 was the third biggest selling car in the uk last month. (more than the ford focus!)
+yes it's a…</t>
+  </si>
+  <si>
+    <t>@ag25121993 @angelndevil2 @tesla_truth @norse_creative @tesla @lorakolodny @danahull @elonmusk tesla will be broke before fsd is releashed.
+keep dreaming about appreciating assets.</t>
+  </si>
+  <si>
+    <t>@sadrejeb @porsche @porsche_europe @porsche_us sure. the more evs the better it is. ice is the mutual enemy. @tesla can't do it alone.</t>
+  </si>
+  <si>
+    <t>@evafoxu @alterviggo @elonmusk @tesla theme 3/ tesla will increase hydrocarbon production because -
+mainly power plants (except gas) gets paravia turbines and their efficiency 12-18%! efficiency tesla 0,9 x efficiency turbines 0,18= 0,162 vs efficiency combustion engine=0,35-0,45!</t>
+  </si>
+  <si>
+    <t>rt @kirillklip: #theswitch #electriccars are expected to drive #copper demand. the exponential growth of #evs sales meets mining industry c…</t>
   </si>
   <si>
     <t>rt @assaadrazzouk: africa: solar panels and 520 tesla powerall batteries keep zimbabwe's mobile phone network running, despite 18 hours of…</t>
   </si>
   <si>
+    <t>oh and the cars both offer travel range of up to 453km depending on what taycan variant you get.  
+thinking of getting one? prices start at around $150,000. 
+tesla should be very afraid 😰
+#motiontown #porschetaycan #electriccars #electricfuture https://t.co/hgnc5wxqxq</t>
+  </si>
+  <si>
+    <t>rt @marketwatch: there's more than just the cars -- consider which companies are supplying the charging ports and high voltage connector fo…</t>
+  </si>
+  <si>
+    <t>australia is getting the world´s biggest battery by wef
+https://t.co/ivxruhenk0</t>
+  </si>
+  <si>
+    <t>.@tesla model 3 was the third best selling new passenger car model in the uk in august with 2,082 registrations under its uk alias “other”.
+significant as the rhd version begins its uk debut
+source: data: smmt https://t.co/kh9z0peyal</t>
+  </si>
+  <si>
+    <t>rt @vcstarterkit: sv: "silicon valley is a meritocracy" 
+also sv: one group of five people from this dance class at stanford now comprise…</t>
+  </si>
+  <si>
+    <t>@tonytesla4life @inelonwetrust__ @edmunds @porsche 🤣🤣🤣 @edmunds you so crazy. that @porsche is a low volume niche product. you can by a @tesla p100d model s and a long range model x for that price 🙄</t>
+  </si>
+  <si>
+    <t>@3l3v3nth why is greenwich full of tesla’s?  do they think driving electric cars will offset the carbon footprint of their 20,000 sqft. homes and private jet lifestyles. so weird.  these porsche’s will be lining the avenue by spring. won’t help the climate.</t>
+  </si>
+  <si>
+    <t>rt @4allsoulkind: i held off losing my shit...
+https://t.co/9tjpx0ydym
+until now. 
+https://t.co/k0dx1kcimr 
+cc @potus @michaelh992 @mattwhi…</t>
+  </si>
+  <si>
+    <t>rt @carwowuk: #porsche has gone electric... introducing the #taycan! 
+with the turbo s edition able to achieve 760hp and 0-60mph in only 2…</t>
+  </si>
+  <si>
+    <t>rt @tesletter: the new software now being tested under the early release program shows oncoming traffic. now a better video https://t.co/nv…</t>
+  </si>
+  <si>
+    <t>@holmestw @stevefowler dealer demos? hahaha, shows how ignorant you are about what @tesla are up too in the uk.  new ships every 2 weeks and they just started trucking them across the us and shipping from philly to speed up delivery times.</t>
+  </si>
+  <si>
+    <t>rt @myurbancar: tesla model 3 was august's third best-selling car in the uk
+auto express understands the model 3 found more homes in august…</t>
+  </si>
+  <si>
+    <t>rt @evomagazine: porsche’s first all-electric model has been unveiled, with the range-topping #taycan turbo s boasting 750bhp and 774lb ft…</t>
+  </si>
+  <si>
+    <t>rt @fullychargeddan: 🇺🇸 “tesla confirms battery cell manufacturing in job listing, also new location in colorado?” https://t.co/njhb5i2oj4</t>
+  </si>
+  <si>
+    <t>@elonmusk @tesla but it's ok to fly everywhere in a private jet</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/nmhrgljzff https://t.co/q2m3yruzwm</t>
+  </si>
+  <si>
+    <t>tesla autopilot design cited by ntsb as factor in 2018 california crash https://t.co/hv6i6ywtnj</t>
+  </si>
+  <si>
+    <t>rt @mkbhd: this car would not exist without what tesla has done. but now that it finally exists, hell yes let the competition finally begin…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/auaw3q5cb0 https://t.co/q58c5ndyni</t>
+  </si>
+  <si>
+    <t>rt @dimas_______: model s is faster, has 100 miles more range and is almost half the price.
+do you want to write the article again? https:…</t>
+  </si>
+  <si>
+    <t>the #model3 production line at #gigafactory 3 in shanghai is starting to come to life! https://t.co/xoxqszopjg https://t.co/2da7qp9x4v</t>
+  </si>
+  <si>
     <t>https://t.co/pjvookukiq tesla autopilot design 'led to' crash https://t.co/xmrlmtgohe #mrahmedserougi https://t.co/xmobitcyux</t>
   </si>
   <si>
-    <t>100% percent agreed.....every time i see porsche promoting their new taycan...it actually makes me happy...because… https://t.co/88wbkdj5oh</t>
-  </si>
-  <si>
-    <t>rt @zerohedge: ntsb finds 2018 tesla crash due to "overreliance" on autopilot and "tesla’s autopilot design" https://t.co/bzcpdpyc5m</t>
-  </si>
-  <si>
-    <t>rt @28delayslater: “it’s disheartening to see every other premium bev coming to market with such relatively poor energy efficiency compared…</t>
-  </si>
-  <si>
-    <t>rt @elonmusk: tesla solar just relaunched. lmk what you think … https://t.co/mdopo17yb9</t>
-  </si>
-  <si>
-    <t>rt @elonmusk: try tesla insurance. should be ~20% less than avg. currently only in california, but expanding soon. critical feedback much a…</t>
-  </si>
-  <si>
-    <t>@1loafofmeat it’s ridiculous
-you would think a $185,000 car should include the stuff a $39k tesla has standard, but… https://t.co/xaiyzkvdji</t>
-  </si>
-  <si>
-    <t>as long as things continue to progress. it is all good. https://t.co/ayj0pjyuhw</t>
-  </si>
-  <si>
-    <t>@wiredtransport better l00k at tesla's motor instead.</t>
-  </si>
-  <si>
-    <t>the all-electric 2020 porsche taycan is a 750 hp tesla rival https://t.co/3qcrgrsypw</t>
-  </si>
-  <si>
-    <t>rt @pulte: yes, we are the team (formerly called followers) giving away a tesla on the internet 😊 more giveaways soon.  video: https://t.co…</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/smetqa4yhs</t>
-  </si>
-  <si>
-    <t>dear markus, mr musk believes in “let fires burn” in other words - there will be a chapter 11 filing before a servi… https://t.co/hrkiaangzx</t>
-  </si>
-  <si>
-    <t>rt @vincent13031925: tesla model 3 production line in gigafactory 3 china is coming to life 
-by: ⁦@residentsponge⁩ 
-via: ⁦@teslarati⁩ 
-$t…</t>
-  </si>
-  <si>
-    <t>from a car perspective, a car like this, from an established maker, gives the prospect for better model evolution,… https://t.co/rym26sfwfz</t>
-  </si>
-  <si>
-    <t>@model3owners don’t say “tesla-killer” say “tesla follower”…</t>
-  </si>
-  <si>
-    <t>rt @arstechnica: feds scold tesla for slow response on driver monitoring https://t.co/rqxcvprq6a by @binarybits</t>
-  </si>
-  <si>
-    <t>@markbspiegel @tesla combined others, published each month (and includes tesla) in august was 2,414 of which 2,293 imports</t>
-  </si>
-  <si>
-    <t>rt @maloryvague: endearing moments like when @petebuttigieg says he can’t afford a @tesla but still bought a hybrid serves as a reminder th…</t>
-  </si>
-  <si>
-    <t>@ag25121993 @angelndevil2 @tesla_truth @norse_creative @tesla @lorakolodny @danahull @elonmusk tesla will be broke… https://t.co/hmkwhs4ghs</t>
-  </si>
-  <si>
-    <t>in august only the perennially bestselling ford fiesta and volkswagen golf sold in greater quantities than the 2,08… https://t.co/8abe0rl1bj</t>
-  </si>
-  <si>
-    <t>rt @harrismonkey: fears taycan would look ropey minus-camo totally unfounded. it’s stunning. seems pretty expensive, but suspect it’s unlik…</t>
+    <t>@tesla_truth it would have been at the same price as the tesla, but for double the money, no thanks!</t>
+  </si>
+  <si>
+    <t>@monicasmalls2 $150k and $180k? not exactly aiming for the mass market. it seems to be trying to compete with the tesla roadster, but with much crappier performance.
+https://t.co/mybjl6pab3</t>
+  </si>
+  <si>
+    <t>@pollstesla @tesla_truth @bagholderquotes a twitter account created to badger tesla, lol yeah i am the noise 😂 like does anyone fall for this? i guess the day traders do, but not exactly high praise, not the sharpest tool in the shed</t>
+  </si>
+  <si>
+    <t>$tsla 
+model s needs a remake otherwise they get buried style is aged. unlike porsche 911 tesla s will never maintain a similar evolve and end up out in pasture https://t.co/b6ntfjtofn</t>
+  </si>
+  <si>
+    <t>rt @spotted_model: @dennis_p @iluvamp @domenick_y @tesla @porsche yup 2 of my friends will become ev lovers bc of #taycan.  one’s trading i…</t>
+  </si>
+  <si>
+    <t>@ev_stevee @elonmusk @tesla @teslaclubin pointing to tesla website by a fan account isn't fraud. use of the logo is subject to permission. @teslaclubin  was politely asked to not use it until official presence and so he obliged. @teslaownerssv @teslaownersuk are registered owner clubs and they are allowed.</t>
+  </si>
+  <si>
+    <t>electric cars: new porsche taycan makes tesla model s 'seem ancient,' says analyst. it’s a “dramatic step up ahead of the relative one-dimensional capabilities of the teslas.” $tslaq ⁦@porsche⁩  https://t.co/pha7vvohh8</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/w5tdqbiyzz https://t.co/qwbe60auwi</t>
+  </si>
+  <si>
+    <t>@tesla_truth i guess that’s good but they already purchased without incentive.  this just pushes the issue back.  the best system would be a rollback of credits based on quarter/year not volume of production.  don’t punish the high volume players!</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/xkuuhsysy4 https://t.co/xasyu0sihj</t>
+  </si>
+  <si>
+    <t>@jalopnik @ford sucks and there trucks and suvs are massively overpriced.  i’m buying a @tesla</t>
+  </si>
+  <si>
+    <t>rt @enn_nafnlaus: porsche: "pay us $150-250k for this." https://t.co/illqdozt7w</t>
+  </si>
+  <si>
+    <t>rt @ctr4autosafety: breaking into our normal #recall roundup or our call for a #recall of @tesla by @nhtsagov "any company that encourages…</t>
+  </si>
+  <si>
+    <t>rt @theworldindex: the world's most innovative companies of 2018:
+1.🇺🇸 servicenow
+2.🇺🇸 workday
+3.🇺🇸 salesforce
+4.🇺🇸 tesla
+5.🇺🇸 amazon
+6.🇺🇸…</t>
   </si>
   <si>
     <t>rt @tangtong77: @40_head cern
@@ -258,66 +735,47 @@
 spir…</t>
   </si>
   <si>
-    <t>rt @teslarati: the porsche taycan is no ‘tesla killer:’ it’s proof that elon musk’s electric car mission is moving forward
-https://t.co/oty…</t>
-  </si>
-  <si>
-    <t>update 3-u.s. safety agency cites tesla autopilot design as factor in 2018 california crash @cnbc  https://t.co/uwbh1ap02u</t>
-  </si>
-  <si>
-    <t>the island of kauai hawaii powered by solar panels and power stacks by solarcity and tesla
- https://t.co/2lnhyncmcc</t>
-  </si>
-  <si>
-    <t>@benwaghorn @statsteslaapp @tesla i know the feeling!
-almost 1 year old lr awd model 3 https://t.co/jz3srbh84a</t>
-  </si>
-  <si>
-    <t>rt @drandrewthaler: several months ago, i wondered how long a tesla would run if the company suddenly went under. 
-i love electric cars. i…</t>
-  </si>
-  <si>
-    <t>this chart is the simplest and best quick compare i have seen yet of the tesla killer @porsche taycan vs. @tesla  m… https://t.co/mi9mqftytp</t>
-  </si>
-  <si>
-    <t>rt @idiotslncars: this guy asleep at the wheel of his tesla on the interstates https://t.co/srfbnt2mfi</t>
+    <t>@xenius101 @evnewsdaily @tesla @smmt department for transport also publishes statistics every quarter so we'll see it properly accounted for there at least 😊</t>
+  </si>
+  <si>
+    <t>rt @morriss003: “there’s a paper bag in the front seat of the tesla,” derek said.  “go get it.”
+i went to the car and found the paper bag.…</t>
+  </si>
+  <si>
+    <t>@elonmusk @tesla what if you just recirculate the air inside the car?, lmfao</t>
+  </si>
+  <si>
+    <t>rt @lgwteslateam: here are a couple of our fabulous fleet of green executive cars.
+what would you like to to travel to and from london gatw…</t>
+  </si>
+  <si>
+    <t>rt @tirukuralkaram: porsche debuts tesla's newest competition with the all-electric taycan https://t.co/ijft8tpcqq</t>
+  </si>
+  <si>
+    <t>now that's how you write an article that is extremely complimentary of the taycan while not having to claim it will kill tesla. nice job, @teslarati! https://t.co/4rkmvlujfj</t>
+  </si>
+  <si>
+    <t>@bensullins @porsche @tesla everybody saying its better then the tesla: the model s was released ages ago and porsche barely catches up for a higher price 😂 miss me with that shit</t>
   </si>
   <si>
     <t>solar island ta’u in american samoa powered by solar panels and power packs by tesla
  https://t.co/muahmyquvf</t>
   </si>
   <si>
-    <t>rt @teslapodcast: comparing the 2020 @porsche #taycan with the 2015 @tesla #models and tesla's current model s. $tsla @elonmusk #tesla #por…</t>
-  </si>
-  <si>
-    <t>@dagibby @saskboy everyone is getting those, numbnuts. and those are not for tesla, but people who buy a zev get a… https://t.co/9zuqc3mnph</t>
-  </si>
-  <si>
-    <t>rt @gora321: u.s. insurers say they currently do not have sufficient data to validate auto industry promises of safety benefits from automa…</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/zrheqrpq87 https://t.co/vhc3avobga</t>
-  </si>
-  <si>
-    <t>tesla owners locked out of cars on labor day when phone key app goes down https://t.co/2btzwhsorg via @yahoo</t>
-  </si>
-  <si>
-    <t>rt @mkbhd: this car would not exist without what tesla has done. but now that it finally exists, hell yes let the competition finally begin…</t>
-  </si>
-  <si>
-    <t>rt @mrtybaba: lmao... tit for tat... sharp guy 😂😂😂😂https://t.co/46azq7zlgv</t>
-  </si>
-  <si>
-    <t>rt @40_head: @winstonbrown84 @potus you must not know much about tesla...his situation is tied directly to secret societies, government cov…</t>
-  </si>
-  <si>
-    <t>» tesla owners locked out of cars as app goes down – investment watch https://t.co/lw9kavdpzp</t>
-  </si>
-  <si>
-    <t>rt @teslaopinion: #lovetesla insurance - even if it’s not always cheapest, it will make insurance companies think twice before they gouge t…</t>
-  </si>
-  <si>
-    <t>@ds8kuhd @tesla360_tesla you really don’t know what a bet is do you?</t>
+    <t>@gustafgabel also porsche taycan turbo s vs. tesla model s performance
+https://t.co/5a3sewjvlf</t>
+  </si>
+  <si>
+    <t>i want a tesla</t>
+  </si>
+  <si>
+    <t>rt @arstechnica: feds scold tesla for slow response on driver monitoring https://t.co/rqxcvprq6a by @binarybits</t>
+  </si>
+  <si>
+    <t>another tesla crashes due to misuse of autopilot https://t.co/vnie40ezgm [@thenextweb]</t>
+  </si>
+  <si>
+    <t>rt @polixenes13: every investor, long or short, misled by the endless falsehoods from musk &amp;amp; $tsla, should adopt the methodology used by te…</t>
   </si>
   <si>
     <t>not model 3 orders*!
@@ -326,836 +784,84 @@
 #tsla https://t.co/uqfdhczi4y https://t.co/pbxaclqrii</t>
   </si>
   <si>
-    <t>@jerviscapital saluti please find the unroll here: thread by @cppinvest: "1/ tesla surprised everyone in late 2012… https://t.co/vohuelxf71</t>
-  </si>
-  <si>
-    <t>@auto_schmidt @tesla so in june "others" was how much? (it should have been only a few hundred.)</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/p5rhxjqpvm #in #tech</t>
+    <t>@markbspiegel @tesla combined others, published each month (and includes tesla) in august was 2,414 of which 2,293 imports</t>
+  </si>
+  <si>
+    <t>@romanoderso @mkbhd but the model s is a tesla. which easily carries as much weight.</t>
+  </si>
+  <si>
+    <t>florida man parks smart car in kitchen so hurricane dorian won’t blow it away | ktla https://t.co/wpt9m6bxav</t>
+  </si>
+  <si>
+    <t>@alterviggo @elonmusk @tesla i'm with all of you on electric cars,  we need them to be the way we travel,  but oil is good in some ways, i especially like my fries cooked in them. i'm sure tesla uses a bunch of oil based products in the cars also</t>
+  </si>
+  <si>
+    <t>black tesla https://t.co/hj99jcki07</t>
+  </si>
+  <si>
+    <t>rt @teslarati: tesla model 3 production line in gigafactory 3 china is coming to life
+https://t.co/uxfuzfdyu7</t>
+  </si>
+  <si>
+    <t>@arsonartist i swear i was so scared @antoniiogarza21 and @larrayxo were gonna have this moment in his tesla</t>
+  </si>
+  <si>
+    <t>@clausmller17 @tesla @nhtsagov @nhtsarecalls @ralphnader @realdonaldtrump  you can shut this corrupt agency down right now, and spare taxpayer some money. thanks.</t>
+  </si>
+  <si>
+    <t>@jpr007 that doesn't look like the skateboard-design tesla invented and perfected at all /s.
+more evs the merrier though and i hope they sell tons!</t>
+  </si>
+  <si>
+    <t>@zonephysics tesla is original is very high currency can’t b changed</t>
+  </si>
+  <si>
+    <t>this just about says all.....this is exactly why every german 🇩🇪 who takes a test drive in a tesla upon finishing their drive enthusiastically exclaims.....wunderbar!!! https://t.co/2aemxukoky</t>
+  </si>
+  <si>
+    <t>@tesletter version?</t>
+  </si>
+  <si>
+    <t>rt @elonmusknewsorg: porsche taycan is no ‘tesla killer:’ it’s proof elon musk’s ev mission is moving forward  https://t.co/azukttf0b0</t>
+  </si>
+  <si>
+    <t>@enn_nafnlaus watch out at 18 seconds and 38 seconds https://t.co/xziznqv62g</t>
+  </si>
+  <si>
+    <t>interesting reading below! lol @tesla $tsla #tesla https://t.co/mkn4vvuafj</t>
+  </si>
+  <si>
+    <t>from a car perspective, a car like this, from an established maker, gives the prospect for better model evolution, rather than just introducing a new model to capture a new segment. what is future of tesla model s, x, or the original model? https://t.co/ft0v5qbnlr</t>
+  </si>
+  <si>
+    <t>as long as things continue to progress. it is all good. https://t.co/ayj0pjyuhw</t>
+  </si>
+  <si>
+    <t>tesla sells sedans and suvs. porsche taycan is a very expensive sports car. apples vs oranges. taycan is not going to be a tesla killer! https://t.co/qxhbi8eqtt</t>
+  </si>
+  <si>
+    <t>rt @teslaforthe_win: 100% percent agreed.....every time i see porsche promoting their new taycan...it actually makes me happy...because por…</t>
+  </si>
+  <si>
+    <t>this chart is the simplest and best quick compare i have seen yet of the tesla killer @porsche taycan vs. @tesla  model s. #taycan #taycanturbos #models check out the column on the right. https://t.co/lrinetc0wq</t>
   </si>
   <si>
     <t>@jays200 @model3owners @elonmusk @tesla not looking too bad in the scheme of things! https://t.co/dcimmlbamd</t>
   </si>
   <si>
-    <t>rt @gerberkawasaki: you can buy an off the charts sweet tesla for less than the starting price of a new taycan which is totally unproven an…</t>
-  </si>
-  <si>
-    <t>@realchaozhou so you're just an *official* tesla mouthpiece now. what is your compensation?</t>
-  </si>
-  <si>
-    <t>@dappgamingio @tesla @elonmusk @cs_commander @williamshatner we have to send a sportcoupe to the space too 😅</t>
-  </si>
-  <si>
-    <t>@konrad_bilinski $90k???
-@business is lying through their teeth. https://t.co/sjxnk19tjs</t>
-  </si>
-  <si>
-    <t>@asomer @dcexaminer @cnn @andrewyang @tesla @elonmusk he didn’t say he would outlaw it friend. he said we would off… https://t.co/ybsvm1lfjc</t>
-  </si>
-  <si>
-    <t>rt @tesletter: the new software now being tested under the early release program shows oncoming traffic. now a better video https://t.co/nv…</t>
-  </si>
-  <si>
-    <t>@elonmusk i don't have tesla right now 
-but i undoubtedly know that 
-it will be my first car!!
-p.s. when a offer co… https://t.co/9opp28aoqm</t>
-  </si>
-  <si>
-    <t>my 6 year-old model s p85 w/149,000 miles is way better than any new ice i could buy across every single dimension.… https://t.co/tnp4mz5yry</t>
-  </si>
-  <si>
-    <t>now that's how you write an article that is extremely complimentary of the taycan while not having to claim it will… https://t.co/hfowjepgng</t>
-  </si>
-  <si>
-    <t>rt @elonmusk: @elecvehicleguy @tesla anywhere insurance prices are high</t>
-  </si>
-  <si>
-    <t>rt @joesquawk: @glatran35 @cnbc i'm so sorry. so you own tesla stock? what can i do to make it up you. send me a list of all your long posi…</t>
-  </si>
-  <si>
-    <t>rt @elonmusknewsorg: porsche taycan is no ‘tesla killer:’ it’s proof elon musk’s ev mission is moving forward  https://t.co/azukttf0b0</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/w5tdqbiyzz https://t.co/qwbe60auwi</t>
-  </si>
-  <si>
-    <t>rt @wired: for the second time, the national transportation safety board has found tesla partially responsible for a crash involving the se…</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/w2bmzebr71</t>
-  </si>
-  <si>
-    <t>rt @realchaozhou: tesla shanghai gigafactory power facilities will be completed by the end of september. the 220kv power supply project ent…</t>
-  </si>
-  <si>
-    <t>back to school night too? 😩 jesus be a tesla so you can take the wheel while i sleep.</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/xm8btslbvv https://t.co/yrgqvrhrur</t>
-  </si>
-  <si>
-    <t>rt @telebusiness: #tesla's mass market electric car, the model 3, was britain's third-biggest selling vehicle last month – beaten only by f…</t>
-  </si>
-  <si>
-    <t>the new porsche taycan charges 270kw when tesla runs 50kw so this is solved. you're welcome. https://t.co/ftgabe1npb</t>
-  </si>
-  <si>
-    <t>“everything is standard in a tesla... you don’t get nickeled and dimed”
-🙄
-$tsla $tslaq #tesla… https://t.co/yl57sahdfm</t>
-  </si>
-  <si>
-    <t>@teslajoy @alterviggo @benwaghorn @statsteslaapp @tesla i charged my lr rwd over 500km (311 miles) last saturday be… https://t.co/sn9prr2pi2</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/qy5lphhvce</t>
-  </si>
-  <si>
-    <t>rt @amyjaffeenergy: @johnrhanger @jessejenkins very hard to get past early adopters. tesla success not meaningful to hit s curve for afford…</t>
-  </si>
-  <si>
-    <t>rt @tesla_truth: tesla already sells more cars than porsche globally, today  
-and yet, when porsche unveils their first ev for $185,000 it…</t>
-  </si>
-  <si>
-    <t>rt @cppinvest: 1/ tesla surprised everyone in late 2012 with the announcement it was building a global supercharger network.  that announce…</t>
-  </si>
-  <si>
-    <t>tesla powerpack + solar powering the cathedral college in rockhampton, queensland, australia
- https://t.co/bupasaevgr</t>
-  </si>
-  <si>
-    <t>rt @harry1t6: world war ii vet (to pete buttigieg): i stormed the beaches of normandy on d-day, most of my friends didn’t make it, but we p…</t>
-  </si>
-  <si>
-    <t>one way we can reduce our emissions and slow the melting of the arctic would be switching to hybrid or electric car… https://t.co/wkbyehngjn</t>
-  </si>
-  <si>
-    <t>rt @deveautrain: "i can't afford a tesla" #peteforamerica #cnnclimatetownhall #meneither</t>
-  </si>
-  <si>
-    <t>@redskullpro @hussaintausif 😂
-it's like almost 200k usd! tausif is better off getting a tesla model s p100d.</t>
-  </si>
-  <si>
-    <t>@tesla drove friend's m3 from work to home and back and that sealed the deal for me. the convenience of autopilot w… https://t.co/anconfhurs</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/f3vtahkhzw https://t.co/mazh6ot14w</t>
-  </si>
-  <si>
-    <t>rt @carwowuk: #porsche has gone electric... introducing the #taycan! 
-with the turbo s edition able to achieve 760hp and 0-60mph in only 2…</t>
-  </si>
-  <si>
-    <t>rt @kirillklip: green energy metals and #revolution - reuters: "#tesla expects global shortage of electric vehicle battery minerals." https…</t>
-  </si>
-  <si>
-    <t>rt @maxhusar: @tesla_truth @teslamodel32 hilarious 😂
-btw the tax in germany is 19%.
-that puts your 250k car at actually 300k.
-still no ch…</t>
-  </si>
-  <si>
-    <t>awesome - tesla autopilot design 'led to' crash https://t.co/pwv7vddkvk via bbc #agribusiness #investor #nigeria</t>
-  </si>
-  <si>
-    <t>another tesla owner is dead because of autopilot https://t.co/yvgmusao6b</t>
-  </si>
-  <si>
-    <t>@ethelreddy1 @scot_work @tesla @elonmusk in reality this is ur lucky day.
-#tesladeliveryissues
-if u r still consi… https://t.co/akkfxpeb93</t>
-  </si>
-  <si>
-    <t>@teslatunity @tesla thanks!!</t>
-  </si>
-  <si>
-    <t>tesla model 3 hmi https://t.co/tm8idwcwvm let’s have some fun with “unexpected” easter eggs! #hmi #teslamodel3… https://t.co/kb5m7lom4q</t>
-  </si>
-  <si>
-    <t>rt @clearcover: thanks @cheddar for having us on today to chat about the launch of @tesla's car insurance and how it affects the #autoinsur…</t>
-  </si>
-  <si>
-    <t>indeed - thanks for accelerating the advent of sustainable transportation while providing the best consumer product… https://t.co/4kjs2kjtbn</t>
-  </si>
-  <si>
-    <t>@luckiestdad1 @peakdoublespeak @jkenney then add to that, i'm driving the same car i was 8 years ago like many peop… https://t.co/jeza8pgd7y</t>
-  </si>
-  <si>
-    <t>rt @elonmusk: @justpaulinelol @tesla same, except where limited by eu regulations. we’re aware of extreme consumer unhappiness about this &amp;amp;…</t>
-  </si>
-  <si>
-    <t>tesla confirms battery cell manufacturing in job listing, also new location in colorado? - electrek https://t.co/wpwo5ugssd</t>
-  </si>
-  <si>
-    <t>rt @evomagazine: porsche’s first all-electric model has been unveiled, with the range-topping #taycan turbo s boasting 750bhp and 774lb ft…</t>
-  </si>
-  <si>
-    <t>rt @ikeysee: my ⁦⁦@mercedesbenz⁩ drivepilot would full stop after two minutes of no inputs on the wheel. 
-14 min is insane and i feel unsaf…</t>
-  </si>
-  <si>
-    <t>@xenius101 @evnewsdaily @tesla @smmt department for transport also publishes statistics every quarter so we'll see… https://t.co/vmlg1pyk5y</t>
-  </si>
-  <si>
-    <t>i need a $30k+ #bitcoin so i can get the #litecoin price i want. i’m trying to join @tesla twitter.</t>
-  </si>
-  <si>
-    <t>@sadrejeb @porsche @porsche_europe @porsche_us sure. the more evs the better it is. ice is the mutual enemy. @tesla can't do it alone.</t>
-  </si>
-  <si>
-    <t>rt @teslaforthe_win: 100% percent agreed.....every time i see porsche promoting their new taycan...it actually makes me happy...because por…</t>
-  </si>
-  <si>
-    <t>rt @autoexpress: news: the #tesla #model3 was the third best-selling car in the uk in august, with 2,082 finding homes…&amp;gt;&amp;gt; https://t.co/cxqc…</t>
-  </si>
-  <si>
-    <t>@tesla__mania @porsche @porsche_europe @porsche_us not great indeed. hopefully the non-turbo versions will improve those numbers a bit.</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/auaw3q5cb0 https://t.co/q58c5ndyni</t>
-  </si>
-  <si>
-    <t>rt @inastialu: hey, @elonmusk
-greetings from belarus 🇧🇾
-i am belarusian girl and i'm  lukashenko too,but not alexander, but who cares.
-of c…</t>
-  </si>
-  <si>
-    <t>@tesla better use a metro or buses. this is what i do.</t>
-  </si>
-  <si>
-    <t>tesla sells sedans and suvs. porsche taycan is a very expensive sports car. apples vs oranges. taycan is not going… https://t.co/j1dlog2txc</t>
-  </si>
-  <si>
-    <t>tesla model 3 is third best selling car in august https://t.co/xdo6ezttvs https://t.co/3l91rvbwkt</t>
-  </si>
-  <si>
-    <t>@auto_schmidt @tesla we have seen the bust in every market, and what happened shortly after..</t>
-  </si>
-  <si>
-    <t>most innovative automotive companies according to cam at the 🇩🇪 university of bergisch gladbach
-since years everyb… https://t.co/3n1rvpcl46</t>
-  </si>
-  <si>
-    <t>@joesquawk @glatran35 @cnbc with @tesla always being such a big news item and constantly in the news it would be wo… https://t.co/ow5e0eg1wa</t>
-  </si>
-  <si>
-    <t>rt @spectatorindex: most prestigious internships, 2018
-1. google
-2. apple
-3. facebook
-4. microsoft
-5. goldman sachs
-6. tesla motors
-7. ama…</t>
-  </si>
-  <si>
-    <t>.@tesla model 3 was the third best selling new passenger car model in the uk in august with 2,082 registrations und… https://t.co/ihgekxcwh3</t>
-  </si>
-  <si>
-    <t>forget porsche and tesla, this here is the true disruption, eh, @pandtpodcast? 😉 https://t.co/j8yaxss0il</t>
-  </si>
-  <si>
-    <t>@therealmaroko @kiruti haha. chris also owns a tesla. 😂.</t>
-  </si>
-  <si>
-    <t>the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018. https://t.co/yki9kc4twf</t>
-  </si>
-  <si>
-    <t>@luckiestdad1 @peakdoublespeak @jkenney it'll still be mostly gas powered cars, no way electric is gonna take over… https://t.co/4zxpfrurbs</t>
-  </si>
-  <si>
-    <t>@tesla i’m fresh out of college looking for my first car and wish it could be a tesla. one day!</t>
-  </si>
-  <si>
-    <t>rt @bw: porsche unveiled its first-ever electric car in its battle to steal a market that tesla built https://t.co/gplf7bpv36</t>
-  </si>
-  <si>
-    <t>rt @timeofcalamity: good morning! after reading an article yesterday from scientific america about the correlation between learning of the…</t>
-  </si>
-  <si>
-    <t>@johnlilic @tesla no. if you’re comparing to 3/s, the price &amp;amp; range aren’t even comparable! tesla is eons ahead of… https://t.co/c3fhc3b9hk</t>
-  </si>
-  <si>
-    <t>7/n two last observations: (a) the norwegian seasonal component seems to decay slower than the german one (though i… https://t.co/vbiqbe7sdr</t>
-  </si>
-  <si>
-    <t>electric cars: new porsche taycan makes tesla model s 'seem ancient,' says analyst. it’s a “dramatic step up ahead… https://t.co/9oajsphbyb</t>
-  </si>
-  <si>
-    <t>no demand in the east coast #tesla https://t.co/hon7j4pep6</t>
-  </si>
-  <si>
-    <t>my drive by morning inspiration. #tesla #teachersofinstagram @ buffalo, new york https://t.co/t3fargygq5</t>
-  </si>
-  <si>
-    <t>rt @evomagazine: would you pay the premium for the porsche? https://t.co/reukiw0ecr #taycan https://t.co/2fuwy4xcbl</t>
-  </si>
-  <si>
-    <t>@tesla i completely agree with this, but have any studies been done on emf emissions from electric vechicles and th… https://t.co/4ndb6ornxz</t>
-  </si>
-  <si>
-    <t>@vardmos @saskboy you dumb cunt, tesla is the only manufacturer that only sells evs, its welfare.</t>
-  </si>
-  <si>
-    <t>rt @livekindlyco: europe's #meat consumption  is on the decline, @tesla's model 3  is now #vegan, and more! https://t.co/odgvnojvla https:/…</t>
-  </si>
-  <si>
-    <t>rt @mashable: tesla cars can now diagnose themselves and pre-order parts if needed https://t.co/j2blqueza7 https://t.co/lo9aalmwdv</t>
-  </si>
-  <si>
-    <t>oh and the cars both offer travel range of up to 453km depending on what taycan variant you get.  
-thinking of gett… https://t.co/hy863w2pqz</t>
-  </si>
-  <si>
-    <t>@vijaygovindan17 @andrewyang @zach_graumann went to a tesla meetup the other day and one of the guys there showed u… https://t.co/kgshscv1vj</t>
-  </si>
-  <si>
-    <t>rt @gerberkawasaki: its kind of insulting after all this time porsche comes out with a car that costs more than any porsche they have. how…</t>
-  </si>
-  <si>
-    <t>rt @insideevs: survey: people still prefer aging tesla model s over porsche taycan https://t.co/ng1wv7ixju via @insideevs.com</t>
-  </si>
-  <si>
-    <t>@mkbhd this is has a terrible format - but tesla all day.</t>
-  </si>
-  <si>
-    <t>rt @edmunds: we went for a ride in the all-new @porsche taycan ev and got out with a singular thought: this is a tesla killer. https://t.co…</t>
-  </si>
-  <si>
-    <t>@teslacharts open pilot project adds a camera monitoring system for like 1k. have to think tesla could cobble somet… https://t.co/wgrppqeybb</t>
-  </si>
-  <si>
-    <t>rt @orthereaboot: based on $tsla “expert” in tripp case, claims against musk / electrek et al wld be stronger multiple times a week for man…</t>
-  </si>
-  <si>
-    <t>rt @threadreaderapp: @jerviscapital saluti please find the unroll here: thread by @cppinvest: "1/ tesla surprised everyone in late 2012 wit…</t>
-  </si>
-  <si>
-    <t>i want a tesla</t>
-  </si>
-  <si>
-    <t>rt @marketwatch: there's more than just the cars -- consider which companies are supplying the charging ports and high voltage connector fo…</t>
-  </si>
-  <si>
-    <t>@konrad_bilinski @arctechinc wow. not sure but i can already see tslaq going wild if this was tesla. @danahull… https://t.co/doufkpvkok</t>
-  </si>
-  <si>
-    <t>more that are out there the cheaper they will get, and more people will see other uses for them. https://t.co/67ddjl8ogh</t>
-  </si>
-  <si>
-    <t>@teslaownerssv therein lies my biggest hesitation from fully celebrating this release. and it’s ironic coming from… https://t.co/y9vwftpfke</t>
-  </si>
-  <si>
-    <t>@ev_stevee @elonmusk @tesla they say tesla "community". just like @teslaclubin is.</t>
-  </si>
-  <si>
-    <t>@3l3v3nth why is greenwich full of tesla’s?  do they think driving electric cars will offset the carbon footprint o… https://t.co/3lbj05pvsr</t>
-  </si>
-  <si>
-    <t>tesla powerpack installation at southern california edison substation by tesla
-https://t.co/whfabmvnh7</t>
-  </si>
-  <si>
-    <t>rt @tesla: tesla’s mission is to accelerate the world’s transition to sustainable energy. 
-🌞⚡🚗🔋 
-(a thread)</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/gqjh9zifpk https://t.co/6fwpwm9dus</t>
-  </si>
-  <si>
-    <t>@elonmusk @tesla but it's ok to fly everywhere in a private jet</t>
-  </si>
-  <si>
-    <t>@angelndevil2 @clausmller17 @tesla_truth @norse_creative @tesla @lorakolodny @danahull @elonmusk yeah man. but i th… https://t.co/w2ukcd2qbf</t>
-  </si>
-  <si>
-    <t>rt @snazzyq: well that's kinda cool. got a notification about my car being done at the service center via the tesla app. https://t.co/xlemj…</t>
-  </si>
-  <si>
-    <t>@jalopnik @ford sucks and there trucks and suvs are massively overpriced.  i’m buying a @tesla</t>
-  </si>
-  <si>
-    <t>rt @blindfolderg: swedish ai expert blames musk for tesla crashes, pushes unsafe tech to market. $tslaq $tsla (paywall) https://t.co/kwqlam…</t>
-  </si>
-  <si>
-    <t>@ethelreddy1 @scot_work @tesla @elonmusk wait until you get it.....</t>
-  </si>
-  <si>
-    <t>the tesla model 3 is now 100% vegan | livekindly #www.globalenergypost.com https://t.co/cr057uansn</t>
-  </si>
-  <si>
-    <t>@elonmusk @tesla it should be mandatory that all vehicles get converted to or traded in for renewable energy-effici… https://t.co/tgmx2iljaw</t>
-  </si>
-  <si>
-    <t>#breakingnews- tesla's use of individual driver data for insurance 'state-by-state proposition'… https://t.co/oujpr3npzo</t>
-  </si>
-  <si>
-    <t>2020 porsche taycan arrives to battle the tesla model s https://t.co/dn1rgj7jl9</t>
-  </si>
-  <si>
-    <t>@tesla everything you talk about is super cool, but can you give the real feel and experience that petrol car gives....?</t>
-  </si>
-  <si>
-    <t>@karax9699 @dece19th @mkbhd if tesla give out a loaner, and the person reviews it. doesn’t mean that tesla is adver… https://t.co/qyoo9capsq</t>
-  </si>
-  <si>
-    <t>tesla model s alpha hits the road and tesla model s innovations
- https://t.co/p5dk1yeny7</t>
-  </si>
-  <si>
-    <t>@chefrossco01 @its_stationary what happened to the tesla guy?  i haven't seen anything from him in a while</t>
-  </si>
-  <si>
-    <t>rt @lgwteslateam: here are a couple of our fabulous fleet of green executive cars.
-what would you like to to travel to and from london gatw…</t>
-  </si>
-  <si>
-    <t>rt @profbjerke: so long, bundled aaa. hello tesla insurance. my savings is just over 30% with comparable coverage. thanks! 🙌 https://t.co/f…</t>
-  </si>
-  <si>
-    <t>@tesla can we get a 16,000 dollar base model?</t>
-  </si>
-  <si>
-    <t>@xenius101 @evnewsdaily @tesla the @smmt call @tesla other and electric vehicles, alternative fuelled vehicles. tec… https://t.co/s6lpb4imhp</t>
-  </si>
-  <si>
-    <t>rt @kirillklip: the green energy metals royalty company #tnrgold holds 0.36% nsr royalty on the entire #losazules copper project in argenti…</t>
-  </si>
-  <si>
-    <t>@evafoxu @alterviggo @elonmusk @tesla theme 3/ tesla will increase hydrocarbon production because -
-mainly power pl… https://t.co/p8eaelmuxz</t>
-  </si>
-  <si>
-    <t>#techie https://t.co/xsh99othq3 tesla autopilot design 'led to' crash https://t.co/xsh99othq3 the design of tesla's… https://t.co/3g6tazflyg</t>
-  </si>
-  <si>
-    <t>@alterviggo @elonmusk @tesla i'm with all of you on electric cars,  we need them to be the way we travel,  but oil… https://t.co/tvfkk40sqv</t>
-  </si>
-  <si>
-    <t>@coreysfilms @oga_timi @mkbhd you're paying for reliability. tesla's have appauling reliability. estimated between… https://t.co/ovryyegmgg</t>
-  </si>
-  <si>
-    <t>@romanoderso @mkbhd but the model s is a tesla. which easily carries as much weight.</t>
-  </si>
-  <si>
-    <t>@tesla when i read about the technology and saw a viable change to our way of thinking about personal transportatio… https://t.co/1fj7vtmx4o</t>
-  </si>
-  <si>
-    <t>rt @bgrahamdisciple: favorite ntsb quote so far: “all manufacturers except tesla have responded to the ntsb explaining their current system…</t>
-  </si>
-  <si>
-    <t>rt @fitstarflower: good morning!
-just brilliant &amp;amp; my fave of all time ⚛️💖🌠
-#tesla #universe #science #healing 
-have a great day! https:/…</t>
-  </si>
-  <si>
-    <t>tesla model 3 production line in gigafactory 3 china is coming to life | teslarati https://t.co/we8fqqymks via @teslarati</t>
-  </si>
-  <si>
-    <t>rt @enn_nafnlaus: porsche: "pay us $150-250k for this." https://t.co/illqdozt7w</t>
-  </si>
-  <si>
-    <t>rt @johnrhanger: @amyjaffeenergy @jessejenkins there were 361,000 evs sold in usa in 2018. tesla alone sold about 190,000 evs. sales were u…</t>
-  </si>
-  <si>
-    <t>@scot_work @ralphnader @elonmusk @ftc i see you not willing to reply to the replies correcting you. funny.
-teslas… https://t.co/4ieethzqs2</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash - https://t.co/njje28mbph</t>
-  </si>
-  <si>
-    <t>@enn_nafnlaus watch out at 18 seconds and 38 seconds https://t.co/xziznqv62g</t>
-  </si>
-  <si>
-    <t>rt @americanshomer: tesla app failure locks owners out of cars https://t.co/2lcfwdxj6e</t>
-  </si>
-  <si>
-    <t>@nitori__k @reneelazz @dcexaminer @women4yang @cnn @andrewyang @tesla @elonmusk and you will. he’s not saying “im g… https://t.co/pophjd1nq4</t>
-  </si>
-  <si>
-    <t>rt @hsk1st: @mkbhd @harrismonkey aftermarket value is big factor... tesla devalues so quickly and then there's porsche... you get my point</t>
-  </si>
-  <si>
-    <t>@s100dfan this absolutely won't turn tesla buyers towards a porsche but it will turn the heads of potential porsche… https://t.co/yssk7itkl1</t>
-  </si>
-  <si>
-    <t>anyone else feel all fancy n shit when they eat cross ants.</t>
-  </si>
-  <si>
-    <t>rt @ctr4autosafety: breaking into our normal #recall roundup or our call for a #recall of @tesla by @nhtsagov "any company that encourages…</t>
-  </si>
-  <si>
-    <t>tesla knew the anti gravity matters is air pressure. the journal was burned down to ashes. https://t.co/gdzpplbrhi</t>
-  </si>
-  <si>
-    <t>🇳🇴@tesla $tsla september ev market share:
-total: 39%
-model3: 31%
-at least 3 ships more</t>
-  </si>
-  <si>
-    <t>@hiltonholloway @markbspiegel @tesla @smmt yeah that’s true</t>
-  </si>
-  <si>
-    <t>rt @evnewsdaily: in the uk, @tesla doesn't get reported by brand but lumped into "other". considering "other" has nothing else meaningful i…</t>
-  </si>
-  <si>
-    <t>rt @teslatrey: just took the guy that sold me a phone  yesterday at best buy for a drive in my model 3. his first time being in a tesla.…</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/0zdos3vxzl https://t.co/g4roi0ydim</t>
-  </si>
-  <si>
-    <t>@riddlejt4 if you are referring to s&amp;amp;p aths yes but tesla won't catch that strong of a bid in my opinion.</t>
-  </si>
-  <si>
-    <t>rt @tesla: model 3 has arrived in australia 🦘 https://t.co/lxpewxg4pj</t>
-  </si>
-  <si>
-    <t>@bibendumboy don't mind touch, but button option is good to have along side in such a case. and yeah as my… https://t.co/a2orz4dkcj</t>
-  </si>
-  <si>
-    <t>tesla is one of the few manufacturers whose vehicles are largely standard-equipped with advanced driver assistance… https://t.co/5sfkg6tl3g</t>
-  </si>
-  <si>
-    <t>@jpr007 that doesn't look like the skateboard-design tesla invented and perfected at all /s.
-more evs the merrier t… https://t.co/agpduv8puo</t>
-  </si>
-  <si>
-    <t>rt @j_cartwrightn0t: this is the most hermes thing i’ve ever seen. https://t.co/0kwipmuvex</t>
-  </si>
-  <si>
-    <t>@model3owners truth! not many tesla buyers will suddenly become porsche buyers, but any number of porsche buyers wh… https://t.co/q0ikemir8g</t>
-  </si>
-  <si>
-    <t>rt @fullychargeddan: 🇺🇸 “tesla confirms battery cell manufacturing in job listing, also new location in colorado?” https://t.co/njhb5i2oj4</t>
-  </si>
-  <si>
     <t>Teste</t>
   </si>
   <si>
-    <t>@tesla lead from cars also cause autism</t>
-  </si>
-  <si>
-    <t>@zareldo i always say "if you don't like a tesla, just get a mercedes"</t>
-  </si>
-  <si>
-    <t>another tesla crashes due to misuse of autopilot https://t.co/vnie40ezgm [@thenextweb]</t>
-  </si>
-  <si>
-    <t>rt @bectcomputing: tesla's use of individual driver data for insurance 'state-by-state proposition' - reuters https://t.co/gxyp9wj66g https…</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/rl12nud6bx</t>
-  </si>
-  <si>
-    <t>rt @tesla: tell us about *that moment* when you knew you needed a tesla</t>
-  </si>
-  <si>
-    <t>@monicasmalls2 $150k and $180k? not exactly aiming for the mass market. it seems to be trying to compete with the t… https://t.co/oeplrbtztq</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash : https://t.co/hrxgd5bled</t>
-  </si>
-  <si>
-    <t>@evnewsdaily @bevvscott @elonmusk @fullychargedshw @bobbyllew @fullychargeddan @cleantechnica @driveev @autovoltmag… https://t.co/8cjp7ptzfl</t>
-  </si>
-  <si>
-    <t>#porschetaycan is the first proper challenger to tesla model s https://t.co/w3db3v2pz6 https://t.co/b2fiztknxd</t>
-  </si>
-  <si>
-    <t>@drsimevans @colinmckerrache @smmt this was completely down to tesla model 3. looks like it was the third best sell… https://t.co/uobm0gkze2</t>
-  </si>
-  <si>
-    <t>@tesla what to do.
-we still don't have electric charger stations set up near us. 👍👍</t>
-  </si>
-  <si>
-    <t>@markets @business tesla made and delivered more cars in the second quarter of 2019 than it did in any other quarte… https://t.co/b4ldqrg5em</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/nmhrgljzff https://t.co/q2m3yruzwm</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/ctdticqtea</t>
-  </si>
-  <si>
-    <t>our new #mooc on edx teaches you how to assess strategic options from an ethical perspective. instructor prof. salg… https://t.co/f2vqc1pbgs</t>
-  </si>
-  <si>
-    <t>europe's #meat consumption  is on the decline, @tesla's model 3  is now #vegan, and more! https://t.co/odgvnojvla https://t.co/d0oywzyxxp</t>
-  </si>
-  <si>
-    <t>@elonbachman @elonmusk @tesla nonsense...it is a common practice for guys like you to criticize new and obviously b… https://t.co/7gwlddnqip</t>
-  </si>
-  <si>
-    <t>@forbes they should recall cruise control while they’re at it as it cause more deaths. has far worse safety record… https://t.co/piwip8w4np</t>
-  </si>
-  <si>
-    <t>hey @elonmusk, how difficult would it be for automakers like @tesla to work with wireless carriers to disable certa… https://t.co/4dw00xuqnm</t>
-  </si>
-  <si>
-    <t>$tsla investors are so caught up in the whole china-usa talks that they trade the news and forget that it really do… https://t.co/geibcnez9u</t>
-  </si>
-  <si>
-    <t>@28delayslater really creating a tesla killer this time, just wait, we know what we are doing https://t.co/gnh105v82v</t>
-  </si>
-  <si>
-    <t>@erikhouben @petercampbell1 haha - it's a legacy issue whereby tesla was always a small importer. that labelling *s… https://t.co/9vn1s4ti5i</t>
-  </si>
-  <si>
-    <t>@deeyasgar @model3owners this will not be an environmental issue for most, what will cause people to switch will be… https://t.co/ecwlcjyo01</t>
-  </si>
-  <si>
-    <t>my ⁦⁦@mercedesbenz⁩ drivepilot would full stop after two minutes of no inputs on the wheel. 
-14 min is insane and i… https://t.co/binmmbowzq</t>
-  </si>
-  <si>
-    <t>tesla 3-month rally to test its execution force - https://t.co/2rk796vhfu india
-_x000D_https://t.co/skaffex3cp</t>
-  </si>
-  <si>
-    <t>interesting reading below! lol @tesla $tsla #tesla https://t.co/mkn4vvuafj</t>
-  </si>
-  <si>
-    <t>rt @djokernole: i visited tesla science centre in long island. i want to thank the wonderful people who welcomed me and showed me around. i…</t>
-  </si>
-  <si>
-    <t>@officialabq @barkmsmeagol that soft swiping motion is actually the same he used in the video to open the door of his tesla. 😅</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash: https://t.co/l14eeodsfd</t>
-  </si>
-  <si>
-    <t>@tesla_truth it would have been at the same price as the tesla, but for double the money, no thanks!</t>
-  </si>
-  <si>
-    <t>rt @beaxyexchange: three amazing deals at beaxy right now;
-🚀 trade to win a tesla
-🗣 refer a friend for 50% fee bonus
-💸 deposit to earn $…</t>
-  </si>
-  <si>
-    <t>rt @petercampbell1: amazing - tesla model 3 was the third biggest selling car in the uk last month. (more than the ford focus!)
-yes it's a…</t>
-  </si>
-  <si>
-    <t>@elonmusk: check these accounts, please! 
-they claim to be @tesla! 🤯
-https://t.co/yqgof5ra1o
-https://t.co/dkz20w9enw</t>
-  </si>
-  <si>
-    <t>@holmestw @stevefowler dealer demos? hahaha, shows how ignorant you are about what @tesla are up too in the uk.  ne… https://t.co/mykr8barc2</t>
-  </si>
-  <si>
-    <t>@clausmller17 @tesla @nhtsagov @nhtsarecalls @ralphnader @realdonaldtrump  you can shut this corrupt agency down ri… https://t.co/gvfe7wvew5</t>
-  </si>
-  <si>
-    <t>rt @anonymouscynic: 1/ thread with speculation regarding $tsla's next capital raise:
-during the 2019 annual tesla shareholder meeting in j…</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash
-https://t.co/xdwm0xaetl
-the design of tesla's autopilot system and "driver in… https://t.co/rvp5bg2mge</t>
-  </si>
-  <si>
-    <t>@elonmusk @tesla what if you just recirculate the air inside the car?, lmfao</t>
-  </si>
-  <si>
-    <t>@elonmusk spoken like a rich man keep making the tesla name proud</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/btctpxda8r #technology https://t.co/kbuqlrtszt</t>
-  </si>
-  <si>
-    <t>@model3_tesla @mrp1ck3ls @riptide360 @cbsnews @andrewyang lol
-if you trust the us government that’s your delusion bucko</t>
-  </si>
-  <si>
-    <t>@cryptogirl_girl @justinsuntron @cz_binance if it is like the tesla giveaway then the phone is probably used</t>
-  </si>
-  <si>
-    <t>@s100dfan i wish every tesla fan was as reasonable as you. i've had people tell me to day i was wrong to have made… https://t.co/qhvqanqdzz</t>
-  </si>
-  <si>
-    <t>rt @globaltimesbiz: as #tesla ceo @elonmusk had a brisk chat with #alibaba founder #jackmayun during the opening of the world artificial in…</t>
-  </si>
-  <si>
-    <t>black tesla https://t.co/hj99jcki07</t>
-  </si>
-  <si>
-    <t>rt @covensure: video of tesla in full self-driving mode gives us a glimpse into the future of travel - bgr https://t.co/5svfghexn0 https://…</t>
-  </si>
-  <si>
-    <t>@gaminnorwegian @dece19th @mkbhd tesla giving out review or loaners is advertising. not to mention the ads they've… https://t.co/bxnfnijp2a</t>
-  </si>
-  <si>
-    <t>@trumpery45 @markbspiegel @tesla being shifted to 2020 for average co2 fleet emission reasons - although due to bre… https://t.co/mjmkrsdbwq</t>
-  </si>
-  <si>
-    <t>@webmz_ yes! hope tesla is ok! i have a ridiculously complicated medication routine because i have a cat on chemo a… https://t.co/6pi53asks4</t>
-  </si>
-  <si>
-    <t>tesla's use of individual driver data for insurance 'state-by-state proposition' https://t.co/lzgmgzoagr</t>
-  </si>
-  <si>
-    <t>florida man parks smart car in kitchen so hurricane dorian won’t blow it away | ktla https://t.co/wpt9m6bxav</t>
-  </si>
-  <si>
-    <t>@auto_schmidt @tesla so you're saying that all other cars (ferrari, lotus, etc.) are listed separately and "other"… https://t.co/co2v7fj4xl</t>
-  </si>
-  <si>
-    <t>im coming for you. make sure yall save me one https://t.co/isvob8ptis</t>
-  </si>
-  <si>
-    <t>i now drive a bmw and tesla... and park 'em in my pocket! try @getaround with $20 and access cars from your phone. https://t.co/lnmtu7a3gy</t>
-  </si>
-  <si>
-    <t>the next tesla: the all electric walk-in van (wiv)
- https://t.co/zoa8rng3lw</t>
-  </si>
-  <si>
-    <t>@tesletter @elonmusk @justpaulinelol @tesla it's not "noa doesn't work well'. it's that we in eu still need to use… https://t.co/zy5nocdhfs</t>
-  </si>
-  <si>
-    <t>rt @subach: $tsla ntsb is basically saying l2 systems whose design permits the driver to become disengaged from the driving task cause acci…</t>
-  </si>
-  <si>
-    <t>@zonephysics tesla is original is very high currency can’t b changed</t>
-  </si>
-  <si>
-    <t>@s100dfan yes they absolutely did! they made a car which fits in neatly in their line-up &amp;amp; their existing pricing s… https://t.co/2acltx0f4j</t>
-  </si>
-  <si>
-    <t>@evnewsdaily completely agree.  i am pleased to see a  major and respected automaker moving into the ev realm.  but… https://t.co/gfzdbsvpzh</t>
-  </si>
-  <si>
-    <t>rt @skorusark: the porsche taycan is pretty good, but it still trails the 7 year old tesla model s.
-the model s has almost 100 miles of ex…</t>
-  </si>
-  <si>
-    <t>@espenhandersen @alterviggo @elonmusk @tesla but the electricity used for electrolysis of water to split water into… https://t.co/knksiveutu</t>
-  </si>
-  <si>
-    <t>@gustafgabel also porsche taycan turbo s vs. tesla model s performance
-https://t.co/5a3sewjvlf</t>
-  </si>
-  <si>
-    <t>rt @haydndunn: porsche unveiled the #taycan, its first fully electric sports car. the taycans has a slight edge on top speed compared to a…</t>
-  </si>
-  <si>
-    <t>@cbcns we visit ns at least four times a year and we are taking our tesla 3 for the third trip this year to halifax… https://t.co/ugo7mstd7y</t>
-  </si>
-  <si>
-    <t>@askdrstupid @enn_nafnlaus i don’t know how he could say "loads of room"
-sounds like exaggeration to me. https://t.co/wquqvyq8ff</t>
-  </si>
-  <si>
-    <t>tesla autopilot design cited by ntsb as factor in 2018 california crash https://t.co/hv6i6ywtnj</t>
-  </si>
-  <si>
-    <t>@elonmusk @tesla can the tesla truck please have ac seats? that would be super great. thanks for the awesome vehicles.</t>
-  </si>
-  <si>
-    <t>@majornine buy a @tesla , brother. you can thank me later.
-faster, better stopping, better handling, better riding… https://t.co/n9gtymurth</t>
-  </si>
-  <si>
-    <t>rt @bankrollvic_: yeah hell no tesla is tripping for that lol, but follow me for relatable tweets @bankrollvic_ my tweets are funny🤝 https:…</t>
-  </si>
-  <si>
-    <t>rt @caranddriver: a @tesla driver was on autopilot eating a bagel when he smashed into a fire truck: https://t.co/ptts4fw9p5 https://t.co/z…</t>
-  </si>
-  <si>
-    <t>probe of tesla crash points to autopilot 'overreliance'
-https://t.co/jzng8fqwe0 
-#bilyonaryomobile</t>
-  </si>
-  <si>
-    <t>@tesla on the autonomy day.... which is about the same time i realized i cannot afford one.</t>
-  </si>
-  <si>
-    <t>rt @vincent13031925: step 1️⃣: get a tesla car to save ⛽️ $
-step 2️⃣: get tesla insurance to save even more $ 
-step 3️⃣: get tesla solar…</t>
-  </si>
-  <si>
-    <t>you really have to admire the tenacity of these tesla diehards. but it's pretty sad to see @elonmusk string along h… https://t.co/1vrmrp0uak</t>
-  </si>
-  <si>
-    <t>@model3owners @elonmusk excludes usa and china, but yeah, still mightily impressive to see tesla moving forward wit… https://t.co/oywpv6qwjt</t>
-  </si>
-  <si>
-    <t>the full electric tesla semi truck: a beast by tesla
- https://t.co/ptxd3wr1zv</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/kmxdxduuvv https://t.co/mvjupjldvk</t>
-  </si>
-  <si>
-    <t>@idevicehelpus @mkbhd porsche (and all other manufacturers) didn’t do anything after witnessing the relative succes… https://t.co/dyvxqtull6</t>
-  </si>
-  <si>
-    <t>@dez_blanchfield blue....wtf....you mean tesla red right?  😂😂😂
-#model3au #office365 #aviation #airforceone https://t.co/wxo4vms0p4</t>
-  </si>
-  <si>
-    <t>rt @guhrace_roberts: ladies, it’s 2019 let’s not put each other down for no reason https://t.co/br6jnxcvsx</t>
-  </si>
-  <si>
-    <t>@tesla @elonmusk when is it gonna arrive in india sir ?</t>
-  </si>
-  <si>
-    <t>#breakingnews- tesla's use of individual driver data for insurance 'state-by-state proposition'… https://t.co/ofn4a3p9nk</t>
-  </si>
-  <si>
-    <t>@markbspiegel @tesla singular and not plural.
-i am 99.9% sure it is the model 3, makes total sense</t>
-  </si>
-  <si>
-    <t>rt @nytimes: an easter egg on the wordpress site is so hidden, fewer than a dozen people have ever found it, co-creator matt mullenweg said…</t>
-  </si>
-  <si>
-    <t>i agree that ice cars are ancient technology. https://t.co/hgxkdd7vbb</t>
-  </si>
-  <si>
-    <t>rt @sashaanis: @mrkylefield @harrismonkey @mkbhd @porsche @tesla the porsche has significant advantages. its no doubt a big step up in rega…</t>
-  </si>
-  <si>
-    <t>@lloydwaldo @hawkins4gabriel @edmunds @porsche because i don’t like people misconstruing a false narrative of what… https://t.co/p0zxlltepm</t>
-  </si>
-  <si>
-    <t>rt @teslahistorian: this day in $tslaq history:
-just checking how badly bmw i3 has outsold $tsla this year in norway and us:
-norway 2019…</t>
-  </si>
-  <si>
-    <t>starting price 150k. is that a joke?! #tesla #modelswaybetter https://t.co/wzairr4pkv</t>
-  </si>
-  <si>
-    <t>rt @tirukuralkaram: porsche debuts tesla's newest competition with the all-electric taycan https://t.co/ijft8tpcqq</t>
-  </si>
-  <si>
-    <t>@teslastraya @tesla full moon?</t>
-  </si>
-  <si>
-    <t>rt @frontierleasing: lease a #tesla model 3 standard plus auto
-👉 https://t.co/ur7iaq12xs
-✅ only £319.99+vat per month 
-✅ 24 months (9+23 r…</t>
-  </si>
-  <si>
-    <t>@smmt why are you listing #3 seller @tesla model 3 as "other". maybe the car's rise in uk is faster than you can do… https://t.co/or7fjso9ki</t>
+    <t>@luckiestdad1 @peakdoublespeak @jkenney then add to that, i'm driving the same car i was 8 years ago like many people, what makes you think everyone is going to want/be able to buy a new electric car? you gonna buy me one? i sure as hell can't afford a tesla, and wouldn't be caught dead in any of the other evs.</t>
+  </si>
+  <si>
+    <t>@z4chx @model3_tesla @cbsnews @andrewyang only 17% of citizens trust the government. that needs to change if we are going to be able to successfully tackle the problems of a modern economy undergoing the biggest changes since the industrial revolution. https://t.co/t9e6vdx5dd</t>
+  </si>
+  <si>
+    <t>@tesla_truth taycan will have lower priced versions later. but they will have performance of a chair probably...</t>
+  </si>
+  <si>
+    <t>@moonkiska @notoriousa_i_m a tesla wouldn't fit in the back</t>
   </si>
   <si>
     <t>@teslarati porsche releases taycan
@@ -1165,188 +871,493 @@
 #eloninspirationforlife</t>
   </si>
   <si>
+    <t>@hamids @porsche @tesla the only thing i would say is a selling point for porsches is track performance. which, due to some of the features mentioned at the taycan's launch might beat tesla out. 
+tesla still wins everyday performance and with the roadster perhaps more soon.</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/0zdos3vxzl https://t.co/g4roi0ydim</t>
+  </si>
+  <si>
+    <t>@auto_schmidt @markbspiegel @tesla maybe e-niro and kona got a decent uk delivery - they are both sold out of their 2019 allocation.</t>
+  </si>
+  <si>
+    <t>@teslaownerssv therein lies my biggest hesitation from fully celebrating this release. and it’s ironic coming from @tesla owners who some argue are already elite car buyers at the prices we have paid for our own cars.</t>
+  </si>
+  <si>
+    <t>@luckiestdad1 @peakdoublespeak @jkenney it'll still be mostly gas powered cars, no way electric is gonna take over in the world of trucks and don't even get me started on that tesla semi, the technology isn't good enough yet. prototypes exist but they aren't nearly capable of what gasoline and disel are and cost more.</t>
+  </si>
+  <si>
+    <t>@ev_stevee @elonmusk @tesla they say tesla "community". just like @teslaclubin is.</t>
+  </si>
+  <si>
+    <t>@trumpery45 @markbspiegel @tesla being shifted to 2020 for average co2 fleet emission reasons - although due to brexit this could become irrelevant delaying of course</t>
+  </si>
+  <si>
+    <t>@model3owners truth! not many tesla buyers will suddenly become porsche buyers, but any number of porsche buyers who become ev buyers is a good thing!</t>
+  </si>
+  <si>
+    <t>rt @tesla: tesla’s mission is to accelerate the world’s transition to sustainable energy. 
+🌞⚡🚗🔋 
+(a thread)</t>
+  </si>
+  <si>
+    <t>@tesla when i read about the technology and saw a viable change to our way of thinking about personal transportation. even more convinced when the powerwall was introduced. the pricing is fair and competitive for many of the cars...but this college prof will still have to wait. 😭</t>
+  </si>
+  <si>
+    <t>@zonephysics are you kidding me? this isn't even a debate. tesla is the greatest of all time. non-conformist &amp;amp; true original. https://t.co/uf5vofcwpa</t>
+  </si>
+  <si>
+    <t>rt @harry1t6: world war ii vet (to pete buttigieg): i stormed the beaches of normandy on d-day, most of my friends didn’t make it, but we p…</t>
+  </si>
+  <si>
+    <t>rt @historyinpics: “i don't care that they stole my idea. i care that they don't have any of their own.” - nikola tesla https://t.co/sk7s4m…</t>
+  </si>
+  <si>
+    <t>the all-electric 2020 porsche taycan is a 750 hp tesla rival https://t.co/3qcrgrsypw</t>
+  </si>
+  <si>
+    <t>rt @tesla: tell us about *that moment* when you knew you needed a tesla</t>
+  </si>
+  <si>
+    <t>@markbspiegel @tesla trust me, i’ve been doing this for a long time.
+aug in the uk is one of slowest months due to the registration switchover in sep which is why others, without tesla would be small. 
+lotus is listed, ferrari = other imports
+shrewd move by tesla to intro in aug to grab headlines</t>
+  </si>
+  <si>
+    <t>porsche's tesla p100d – the new 761hp taycan ev! https://t.co/inpezznunw lewat @youtube</t>
+  </si>
+  <si>
+    <t>@teslacharts open pilot project adds a camera monitoring system for like 1k. have to think tesla could cobble something together for less.  not that tesla has 1k to toss at every car in their fleet. hw3 upgrade ain’t coming either</t>
+  </si>
+  <si>
+    <t>@markbspiegel @auto_schmidt @tesla tesla not a member of the @smmt i hear.</t>
+  </si>
+  <si>
+    <t>@paul91701736 i think it’s clear that tesla simply is avoiding all liabilities on the $scty side.</t>
+  </si>
+  <si>
+    <t>"everything is light" the incredible interview with nikola tesla in 1899 - infinity explorers https://t.co/tlmbbztdvg</t>
+  </si>
+  <si>
+    <t>@sheilagunnreid this is the same government offering rebates for $5000 so upper middle class canadians can purchase tesla's?</t>
+  </si>
+  <si>
+    <t>@vardmos @saskboy you dumb cunt, tesla is the only manufacturer that only sells evs, its welfare.</t>
+  </si>
+  <si>
+    <t>this is why #tesla's autopilot is really #autoslaughter. $tslaq $tsla https://t.co/mcnnutzjpw</t>
+  </si>
+  <si>
+    <t>@elonmusk @tesla can the tesla truck please have ac seats? that would be super great. thanks for the awesome vehicles.</t>
+  </si>
+  <si>
+    <t>@tesla everything you talk about is super cool, but can you give the real feel and experience that petrol car gives....?</t>
+  </si>
+  <si>
+    <t>@tesla better use a metro or buses. this is what i do.</t>
+  </si>
+  <si>
+    <t>rt @zerohedge: ntsb finds 2018 tesla crash due to "overreliance" on autopilot and "tesla’s autopilot design" https://t.co/bzcpdpyc5m</t>
+  </si>
+  <si>
+    <t>@alvinshen @tesla reach</t>
+  </si>
+  <si>
+    <t>rt @alterviggo: "the oil industry has never before in its history faced the kind of threat that renewable electricity in tandem with electr…</t>
+  </si>
+  <si>
+    <t>@kmdrobish @real_john_d @s_padival @edmunds @porsche @tesla tesla has some of the best crash results ever. i'm sure porsche will be great, but i don't think it's been tested.</t>
+  </si>
+  <si>
+    <t>rt @hamids: here's the thing: i want @porsche #taycan to be a huge success because i want the world to transition to evs. but when you are…</t>
+  </si>
+  <si>
+    <t>@apexcornerspeed @alterviggo @elonmusk @tesla i don't understand. why are you a supporter of oil?</t>
+  </si>
+  <si>
+    <t>rt @alterviggo: doth mine eyes deceive?
+or doth that be
+the stamping press at gf3?
+$tsla @tesla https://t.co/b4yoqf5zkj</t>
+  </si>
+  <si>
+    <t>@yannick_bisson i saw every episode from the season 1 to 12 and i am waiting for the season 13 in my country.
+i loved detective murdoch meeting nikola tesla, graham bell, thomas edison, henry ford, arthur conan doyle (and the boy thinking he was sherlock holmes), jack london, etc</t>
+  </si>
+  <si>
+    <t>@alterviggo @elonmusk @tesla you know who also has a mountain of debt...tesla. fracking companies aren’t the only ones struggling in this economic environment, the trade war has put businesses in a holding pattern. i can assure you fracking will be around in 20yrs.</t>
+  </si>
+  <si>
+    <t>rt @haydndunn: porsche unveiled the #taycan, its first fully electric sports car. the taycans has a slight edge on top speed compared to a…</t>
+  </si>
+  <si>
+    <t>@tesla__mania @porsche @porsche_europe @porsche_us not great indeed. hopefully the non-turbo versions will improve those numbers a bit.</t>
+  </si>
+  <si>
+    <t>rt @1realjoeyb: tbh never, im sorry. 🥴 https://t.co/8h2cr8xfye</t>
+  </si>
+  <si>
+    <t>@elonmusk: check these accounts, please! 
+they claim to be @tesla! 🤯
+https://t.co/yqgof5ra1o
+https://t.co/dkz20w9enw</t>
+  </si>
+  <si>
+    <t>@wiredtransport better l00k at tesla's motor instead.</t>
+  </si>
+  <si>
+    <t>@majornine buy a @tesla , brother. you can thank me later.
+faster, better stopping, better handling, better riding than anything else you currently have.
+they are the truth, fam!
+🙌</t>
+  </si>
+  <si>
+    <t>@evnewsdaily completely agree.  i am pleased to see a  major and respected automaker moving into the ev realm.  but as you say it is in its own space and should be lauded as that.   it is not a tesla killer in any form</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash : https://t.co/hrxgd5bled</t>
+  </si>
+  <si>
+    <t>@dagibby @saskboy everyone is getting those, numbnuts. and those are not for tesla, but people who buy a zev get a tax break of their own taxes.</t>
+  </si>
+  <si>
+    <t>rt @hsk1st: @mkbhd @harrismonkey aftermarket value is big factor... tesla devalues so quickly and then there's porsche... you get my point</t>
+  </si>
+  <si>
+    <t>@erikhouben @petercampbell1 haha - it's a legacy issue whereby tesla was always a small importer. that labelling *should* change next month. the total other imports were 2293, and 2082 is the model 3 number. so that 211 difference will be the s &amp;amp; x (and maybe an odd fcev or random import).</t>
+  </si>
+  <si>
+    <t>new post: tesla model 3 was august's third best-selling car https://t.co/qvmypv2dtg</t>
+  </si>
+  <si>
+    <t>@redskullpro @hussaintausif 😂
+it's like almost 200k usd! tausif is better off getting a tesla model s p100d.</t>
+  </si>
+  <si>
+    <t>rt @evomagazine: would you pay the premium for the porsche? https://t.co/reukiw0ecr #taycan https://t.co/2fuwy4xcbl</t>
+  </si>
+  <si>
+    <t>@elonmusk @tesla hepa filter ftw!</t>
+  </si>
+  <si>
+    <t>@realchaozhou why not just post this from the official tesla account?</t>
+  </si>
+  <si>
+    <t>rt @teslaforthe_win: this just about says all.....this is exactly why every german 🇩🇪 who takes a test drive in a tesla upon finishing thei…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/xhpmvoliel</t>
+  </si>
+  <si>
+    <t>rt @maxhusar: @tesla_truth @teslamodel32 hilarious 😂
+btw the tax in germany is 19%.
+that puts your 250k car at actually 300k.
+still no ch…</t>
+  </si>
+  <si>
+    <t>rt @johnrhanger: @amyjaffeenergy @jessejenkins there were 361,000 evs sold in usa in 2018. tesla alone sold about 190,000 evs. sales were u…</t>
+  </si>
+  <si>
+    <t>rt @mfrunker: maxpider 3d floor mats review | tesla model 3 accessories https://t.co/p1aqu6hf0d</t>
+  </si>
+  <si>
+    <t>someone put this guy in a #tesla. he may just explode 😂 https://t.co/znx79omdjr</t>
+  </si>
+  <si>
+    <t>rt @jwilliamsfstmed: porsche taycan ev is real competition for tesla.
+service will be the kill shot.  tesla can't compete.
+taycan turbo -…</t>
+  </si>
+  <si>
+    <t>@gmbankrupt absolutely!!! what would have been scary/is if the porsche had come in priced at the model 3’s price/capable of what the model 3 is capable of!!! these cars do not compete at all....the competitor of the taycan is the 2nd generation tesla roadster...good luck with that porsche 😎</t>
+  </si>
+  <si>
+    <t>rt @teslahistorian: this day in $tslaq history:
+just checking how badly bmw i3 has outsold $tsla this year in norway and us:
+norway 2019…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/btctpxda8r #technology https://t.co/kbuqlrtszt</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/f3vtahkhzw https://t.co/mazh6ot14w</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/p5rhxjqpvm #in #tech</t>
+  </si>
+  <si>
+    <t>@tesla i’m fresh out of college looking for my first car and wish it could be a tesla. one day!</t>
+  </si>
+  <si>
+    <t>rt @markusrothmlle1: waiting for plans when @tesla moves into service. just had another disappointing service experience.</t>
+  </si>
+  <si>
+    <t>hey @elonmusk, how difficult would it be for automakers like @tesla to work with wireless carriers to disable certain features like text and social media access by drivers while vehicle is in motion?</t>
+  </si>
+  <si>
+    <t>@mattymusgrove @tesla exactly, if those idiots were on transit or bikes, there would be much fewer crashes.</t>
+  </si>
+  <si>
+    <t>tesla is one of the few manufacturers whose vehicles are largely standard-equipped with advanced driver assistance features, including cameras monitoring your lane and recording vehicle surroundings.
+so basically: https://t.co/nyoua7golr</t>
+  </si>
+  <si>
+    <t>@mkbhd this is has a terrible format - but tesla all day.</t>
+  </si>
+  <si>
+    <t>rt @americanshomer: tesla app failure locks owners out of cars https://t.co/2lcfwdxj6e</t>
+  </si>
+  <si>
+    <t>@mkbhd you missed a detail in the performance comparison. the taycan can consistently do 0-60 in 2.8 seconds, whereas in a tesla, there is a limited number of ludicrous mode pulls you can do at 2.4 seconds before the car restricts performance to cool down.</t>
+  </si>
+  <si>
+    <t>@cedricraeford @alterviggo @elonmusk @tesla the nation wants tesla. the nation is in a semi-slave state. only the elite can afford electric cars at this time. make the world a better place. freely educate everyone and share the planet.</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/w2bmzebr71</t>
+  </si>
+  <si>
+    <t>rt @gerberkawasaki: you can buy an off the charts sweet tesla for less than the starting price of a new taycan which is totally unproven an…</t>
+  </si>
+  <si>
+    <t>rt @tesla: model 3 has arrived in australia 🦘 https://t.co/lxpewxg4pj</t>
+  </si>
+  <si>
+    <t>#technologynews: the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018.</t>
+  </si>
+  <si>
+    <t>rt @ikeysee: my ⁦⁦@mercedesbenz⁩ drivepilot would full stop after two minutes of no inputs on the wheel. 
+14 min is insane and i feel unsaf…</t>
+  </si>
+  <si>
+    <t>@karax9699 @dece19th @mkbhd if tesla give out a loaner, and the person reviews it. doesn’t mean that tesla is advertising, they’re literally just giving out a loaner. and with the few loaner cars tesla got, they dont loan cars out specifically for reviews. that’s not a priority at all.</t>
+  </si>
+  <si>
+    <t>@jennifersensiba @tesla @tweetermeyer @elonmusk scale of 1 to 10.. where does the book fall between axe-grinding (1) and useful insights (10)?
+top 3 useful/interesting insights, top 3 axe grinding sessions?</t>
+  </si>
+  <si>
+    <t>tesla powerpack + solar powering the cathedral college in rockhampton, queensland, australia
+ https://t.co/bupasaevgr</t>
+  </si>
+  <si>
+    <t>really interested in the new @porschegb taycan. looks so much better than a tesla. now just need a spare £140k! 😁 #taycan #porschetaycan https://t.co/ytfhdkj6ny</t>
+  </si>
+  <si>
     <t>@xenius101 @evnewsdaily @tesla i reckon the motor traders and legacy manufacturers who finance the @smmt don’t like the word tesla</t>
   </si>
   <si>
-    <t>@kmdrobish @real_john_d @s_padival @edmunds @porsche @tesla tesla has some of the best crash results ever. i'm sure… https://t.co/8notxkk3xb</t>
+    <t>tesla up qoq in germany also!
+#tesla
+#tsla https://t.co/19qegph31i</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/gqjh9zifpk https://t.co/6fwpwm9dus</t>
+  </si>
+  <si>
+    <t>@tesla drove friend's m3 from work to home and back and that sealed the deal for me. the convenience of autopilot was impossible to resist. the only car that is fun to drive when you want to drive and fun to drive when you don't want to drive.</t>
+  </si>
+  <si>
+    <t>another tesla owner is dead because of autopilot https://t.co/yvgmusao6b</t>
+  </si>
+  <si>
+    <t>my drive by morning inspiration. #tesla #teachersofinstagram @ buffalo, new york https://t.co/t3fargygq5</t>
+  </si>
+  <si>
+    <t>i now drive a bmw and tesla... and park 'em in my pocket! try @getaround with $20 and access cars from your phone. https://t.co/lnmtu7a3gy</t>
+  </si>
+  <si>
+    <t>@deej722 or just tesla?</t>
+  </si>
+  <si>
+    <t>rt @wired: for the second time, the national transportation safety board has found tesla partially responsible for a crash involving the se…</t>
+  </si>
+  <si>
+    <t>@scot_work @ralphnader @elonmusk @ftc i see you not willing to reply to the replies correcting you. funny.
+teslas has never stated that full self-driving was ready, that is point one. 
+and second. teslas have the the highest safety rating, world wide. some inbred american, fulling asleep in his tesla, is not on tes</t>
   </si>
   <si>
     <t>@grittyesq @counselorfrog omg the tesla is no more??</t>
   </si>
   <si>
-    <t>rt @evnewsdaily: @bevvscott @elonmusk @fullychargedshw @bobbyllew @fullychargeddan @cleantechnica @driveev @autovoltmag i would love @tesla…</t>
-  </si>
-  <si>
-    <t>rt @1realjoeyb: tbh never, im sorry. 🥴 https://t.co/8h2cr8xfye</t>
-  </si>
-  <si>
-    <t>#technologynews: the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018.</t>
-  </si>
-  <si>
-    <t>someone put this guy in a #tesla. he may just explode 😂 https://t.co/znx79omdjr</t>
-  </si>
-  <si>
-    <t>@jeanclaudeetter @porsche @tesla @elonmusk totally agree, all these things are irrelevant!</t>
-  </si>
-  <si>
-    <t>@kingstarkiller1 @caranddriver @tesla an everything bagel, lets hope, they’re the best bagels</t>
-  </si>
-  <si>
-    <t>rt @teslaforthe_win: this just about says all.....this is exactly why every german 🇩🇪 who takes a test drive in a tesla upon finishing thei…</t>
-  </si>
-  <si>
-    <t>@markbspiegel @auto_schmidt @tesla tesla not a member of the @smmt i hear.</t>
+    <t>rt @kirillklip: the green energy metals royalty company #tnrgold holds 0.36% nsr royalty on the entire #losazules copper project in argenti…</t>
+  </si>
+  <si>
+    <t>forget porsche and tesla, this here is the true disruption, eh, @pandtpodcast? 😉 https://t.co/j8yaxss0il</t>
+  </si>
+  <si>
+    <t>@elonbachman @elonmusk @tesla nonsense...it is a common practice for guys like you to criticize new and obviously better technology using baseless theories...</t>
   </si>
   <si>
     <t>@mwirigi tesla's real value isn't being a 100% electric, they are light years ahead of the pack when it comes to autonomous driving.</t>
   </si>
   <si>
-    <t>@auto_schmidt @markbspiegel @tesla maybe e-niro and kona got a decent uk delivery - they are both sold out of their 2019 allocation.</t>
-  </si>
-  <si>
-    <t>some good stuff in here besides the neuralink, tesla, alibaba plugs: seems like if #agi and space travel are x (say… https://t.co/7dfob8bqeb</t>
+    <t>🍔 #freerangejane is at the fc200 building with her amazing chicken burgers! serving until 2.30pm  😋🤤 #streetfood #foodtrucks #foodtruck @bechtel @allcottsurveyor @dottodotuk @wasabi_uk @medusaloungeldn @equinix @bodenclothing @haineswatts @tesla https://t.co/qhfj2f4vdo</t>
+  </si>
+  <si>
+    <t>tesla's use of customer data to price insurance will depend on us state laws https://t.co/dkimtbxbqe</t>
+  </si>
+  <si>
+    <t>rt @khalilamar: notice to tslaq folks, you actually shitted your pants and your shorts. please change your underwear.
+@tesla_truth https:/…</t>
+  </si>
+  <si>
+    <t>@smmt why are you listing #3 seller @tesla model 3 as "other". maybe the car's rise in uk is faster than you can do your website updates? 😀😀😀
+https://t.co/bripg2xqgz
+@teslaintheuk @thetimes https://t.co/zyikpe5qym</t>
+  </si>
+  <si>
+    <t>tesla owners locked out of cars on labor day when phone key app goes down https://t.co/2btzwhsorg via @yahoo</t>
+  </si>
+  <si>
+    <t>my ⁦⁦@mercedesbenz⁩ drivepilot would full stop after two minutes of no inputs on the wheel. 
+14 min is insane and i feel unsafe around ⁦@tesla⁩ vehicles and their “drivers” who seem to want to kill everyone on the road to drink their coffee https://t.co/2new7g717n</t>
+  </si>
+  <si>
+    <t>@cbcns we visit ns at least four times a year and we are taking our tesla 3 for the third trip this year to halifax. halifax needs a supercharging station! thanks goodness for aulac nb and the (big stop restaurant!) and enfield! come on halifax!</t>
+  </si>
+  <si>
+    <t>no demand in the east coast #tesla https://t.co/hon7j4pep6</t>
+  </si>
+  <si>
+    <t>7/n two last observations: (a) the norwegian seasonal component seems to decay slower than the german one (though i haven't measured it). (b) the norwegian market seems to be more mature for tesla than germany. it would hit ~zero one month ahead in jan 2020 vs feb 2020</t>
+  </si>
+  <si>
+    <t>@deeyasgar @model3owners this will not be an environmental issue for most, what will cause people to switch will be safety, power, tech. they will make the decision when the barrier to entry/use is perceived as non existent. “your telling me i don’t have to go to the gas station and can have more power?”</t>
   </si>
   <si>
     <t>@evafoxu @alterviggo @elonmusk @tesla theme 1/ i love tesla!
 theme 2/ tesla gets energy from power plants</t>
   </si>
   <si>
-    <t>@mkotsmith @daneveritt69 @tesla electric cars are still cleaner, even when their electricity is made by coal 
-also… https://t.co/tlmui1v6l7</t>
-  </si>
-  <si>
-    <t>rt @polixenes13: every investor, long or short, misled by the endless falsehoods from musk &amp;amp; $tsla, should adopt the methodology used by te…</t>
-  </si>
-  <si>
-    <t>@6mai6den6 @cleantechnica we have to promote the real thing. even if tesla go bankrupt because of another ev brand,… https://t.co/wsc778fafl</t>
-  </si>
-  <si>
-    <t>@randyre @dcexaminer @cnn @andrewyang @tesla @elonmusk we spend over 160 billion in oil subsidizes. if we just stop… https://t.co/wl5fwuuvph</t>
-  </si>
-  <si>
-    <t>tesla and time travel : conspiracy https://t.co/27g16x14vq</t>
-  </si>
-  <si>
-    <t>#nowplaying call it what you want by tesla support the station and the artists by following, liking and retweeting… https://t.co/moi0xdgdca</t>
-  </si>
-  <si>
-    <t>@teslarati it doesn’t kill tesla even if some manufacturer publishes ev which is better and cheaper than tesla. tes… https://t.co/dlcxdhltpz</t>
-  </si>
-  <si>
-    <t>@tesla_truth apparently a lot</t>
-  </si>
-  <si>
-    <t>@fromthewalls @tweetertweaker @tesla @elonmusk well, actually, officially, in the eyes of the law and tesla's owner… https://t.co/fhpj9lkq5v</t>
-  </si>
-  <si>
-    <t>@tesla_truth people are so stupid that they were saying ev revolution has not become because of taycan. i mean what… https://t.co/pglxckrjk6</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/42krx8zbeq https://t.co/zdf3klcaqj</t>
-  </si>
-  <si>
-    <t>@yannick_bisson i saw every episode from the season 1 to 12 and i am waiting for the season 13 in my country.
-i lov… https://t.co/hkbfjjeu3c</t>
-  </si>
-  <si>
-    <t>tesla model 3 is third best selling car in august https://t.co/klgp7hjaqz https://t.co/wak18tzbn2</t>
-  </si>
-  <si>
-    <t>another tesla owner is dead because of autopilot 
-https://t.co/ygstfdngdp  #tesla #autopilot #teslas #tech https://t.co/pcmaxa3i54</t>
-  </si>
-  <si>
-    <t>rt @profraywills: .
-“tesla stretch” buyer phenomenon
-#model3 customers spend $30k more than normal to replace old car
-https://t.co/2g64vc8s…</t>
-  </si>
-  <si>
-    <t>@shobhanoffl @zonephysics hey..that song from adele
-not tesla!</t>
-  </si>
-  <si>
-    <t>tesla model 3 overtakes ford focus to be uk's third best-selling car
-https://t.co/mxd3bisjav</t>
-  </si>
-  <si>
-    <t>@tesla for saving our future from air pollution tesla take a very good step. in coming years we will see the good r… https://t.co/vawjuqjbam</t>
-  </si>
-  <si>
-    <t>rt @dimas_______: model s is faster, has 100 miles more range and is almost half the price.
-do you want to write the article again? https:…</t>
-  </si>
-  <si>
-    <t>really interested in the new @porschegb taycan. looks so much better than a tesla. now just need a spare £140k! 😁… https://t.co/4xs0pdwuca</t>
-  </si>
-  <si>
-    <t>u.s. insurers say they currently do not have sufficient data to validate auto industry promises of safety benefits… https://t.co/lctuzmutzm</t>
-  </si>
-  <si>
-    <t>police say a g2 licence driver was clocked going over twice the speed limit in a tesla. https://t.co/k61caukwwo</t>
-  </si>
-  <si>
-    <t>@alhajajemohamed tesla who ?? https://t.co/fpcnlm5x0f</t>
-  </si>
-  <si>
-    <t>tesla sentry mode helps police in break-in — stop breaking into tesla cars! https://t.co/tdrlspgrzn via @fredericlambert</t>
-  </si>
-  <si>
-    <t>rt @bernsteinyair: $tsla investors are so caught up in the whole china-usa talks that they trade the news and forget that it really doesn't…</t>
-  </si>
-  <si>
-    <t>🍔 #freerangejane is at the fc200 building with her amazing chicken burgers! serving until 2.30pm  😋🤤 #streetfood… https://t.co/to1k8e8eq1</t>
-  </si>
-  <si>
-    <t>@auto_schmidt @tesla that's as expected (6000-8000 for the quarter) but why is "other" all model 3? are you sure "o… https://t.co/mzx4jrqfyc</t>
+    <t>rt @subach: $tsla ntsb is basically saying l2 systems whose design permits the driver to become disengaged from the driving task cause acci…</t>
+  </si>
+  <si>
+    <t>tesla model s alpha hits the road and tesla model s innovations
+ https://t.co/p5dk1yeny7</t>
   </si>
   <si>
     <t>rt @tesla_truth: legacy auto can't compete with tesla on specs or price, let alone software and autonomy.
 isn't that amazing? a small star…</t>
   </si>
   <si>
-    <t>"tesla’s sensors were unable to see the side of an 18-wheeler... is it that shocking that it can’t see a firetruck?… https://t.co/m5imq9i1jc</t>
-  </si>
-  <si>
-    <t>rt @dennis_p: fellow @tesla fans, the launch of the @porsche #taycan is an event to celebrate! remember: "tesla’s mission is to accelerate…</t>
-  </si>
-  <si>
-    <t>@officialabq @elonmusk @tesla @teslaclubin using tesla logo and tesla-website??? this is fraud!</t>
-  </si>
-  <si>
-    <t>@paul91701736 i think it’s clear that tesla simply is avoiding all liabilities on the $scty side.</t>
-  </si>
-  <si>
-    <t>tesla autopilot design 'led to' crash https://t.co/xkuuhsysy4 https://t.co/xasyu0sihj</t>
-  </si>
-  <si>
-    <t>@gmbankrupt absolutely!!! what would have been scary/is if the porsche had come in priced at the model 3’s price/ca… https://t.co/8p2kins5kl</t>
-  </si>
-  <si>
-    <t>rt @vcstarterkit: sv: "silicon valley is a meritocracy" 
-also sv: one group of five people from this dance class at stanford now comprise…</t>
-  </si>
-  <si>
-    <t>rt @myurbancar: tesla model 3 was august's third best-selling car in the uk
-auto express understands the model 3 found more homes in august…</t>
-  </si>
-  <si>
-    <t>rt @nobenzine: @elonmusk @tesla thanks for the software update! would you please add 4th option: aero without wheel covers. so photo and es…</t>
-  </si>
-  <si>
-    <t>@deej722 or just tesla?</t>
-  </si>
-  <si>
-    <t>how tesla's in-house insurance is disrupting the insurance industry https://t.co/fxblqaz286 via @cheddar</t>
+    <t>@johnlilic @tesla no. if you’re comparing to 3/s, the price &amp;amp; range aren’t even comparable! tesla is eons ahead of their competition. not to mention fsd...</t>
+  </si>
+  <si>
+    <t>@tesla_truth so if i’m waiting until january of 2020 are you saying the rumor is that i’d get a $7,500 federal tax credit?</t>
+  </si>
+  <si>
+    <t>i need a $30k+ #bitcoin so i can get the #litecoin price i want. i’m trying to join @tesla twitter.</t>
+  </si>
+  <si>
+    <t>rt @covensure: video of tesla in full self-driving mode gives us a glimpse into the future of travel - bgr https://t.co/5svfghexn0 https://…</t>
+  </si>
+  <si>
+    <t>the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018. https://t.co/yki9kc4twf</t>
   </si>
   <si>
     <t>#lydden is already leaving directed to shanghai
 #11 ship in q3
 #40 ship in 2019
-#tesla #model3 #teslacarriers… https://t.co/enhsixsvdo</t>
-  </si>
-  <si>
-    <t>@tesla_truth so if i’m waiting until january of 2020 are you saying the rumor is that i’d get a $7,500 federal tax credit?</t>
+#tesla #model3 #teslacarriers
+https://t.co/air2qlq95e https://t.co/qjrthqounz</t>
+  </si>
+  <si>
+    <t>rt @evnewsdaily: in the uk, @tesla doesn't get reported by brand but lumped into "other". considering "other" has nothing else meaningful i…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash: the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018. https://t.co/coc0m3jmhq https://t.co/shvfekdw1q</t>
+  </si>
+  <si>
+    <t>rt @nickgibbs: amusing that the tesla model 3, the uk's third best selling car for august (!), is labelled other in the smmt top 10, presum…</t>
+  </si>
+  <si>
+    <t>#techie https://t.co/xsh99othq3 tesla autopilot design 'led to' crash https://t.co/xsh99othq3 the design of tesla's autopilot system and "driver inattention" led to a crash in january 2018.</t>
+  </si>
+  <si>
+    <t>@ds8kuhd @tesla360_tesla you really don’t know what a bet is do you?</t>
+  </si>
+  <si>
+    <t>@tesla any idea how to contact your uk offices about a refund. was due within 45 business days, not received. telephone number is now an automated message and no answer to 3 emails to orderupdatesemea. @elonmusk</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/smetqa4yhs</t>
+  </si>
+  <si>
+    <t>@jerviscapital saluti please find the unroll here: thread by @cppinvest: "1/ tesla surprised everyone in late 2012 with the announcement it was building a global supercharger network. that annou […]" https://t.co/5p4bhwmk6p
+share this if you think it's interesting. 🤖</t>
+  </si>
+  <si>
+    <t>@bibendumboy don't mind touch, but button option is good to have along side in such a case. and yeah as my @siauresr said, tesla dudes use ipad screens.</t>
+  </si>
+  <si>
+    <t>tesla model 3 overtakes ford focus to be uk's third best-selling car
+https://t.co/mxd3bisjav</t>
+  </si>
+  <si>
+    <t>rt @bgrahamdisciple: favorite ntsb quote so far: “all manufacturers except tesla have responded to the ntsb explaining their current system…</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash https://t.co/zrheqrpq87 https://t.co/vhc3avobga</t>
+  </si>
+  <si>
+    <t>rt @au_tom_otive: i'd need to go through a few spreadsheets to verify it, but i'm reasonably confident that this is the highest ever monthl…</t>
+  </si>
+  <si>
+    <t>update 3-u.s. safety agency cites tesla autopilot design as factor in 2018 california crash @cnbc  https://t.co/uwbh1ap02u</t>
+  </si>
+  <si>
+    <t>@tesla when my car broke down and swedish tax laws made it cheaper to get a tesla.</t>
+  </si>
+  <si>
+    <t>tesla powerpack installation at southern california edison substation by tesla
+https://t.co/whfabmvnh7</t>
+  </si>
+  <si>
+    <t>@tesletter @elonmusk @justpaulinelol @tesla it's not "noa doesn't work well'. it's that we in eu still need to use left/right blinkers/flashers to overtake slow vehicles on highways. the old fashioned way...  once kicked-in, the car changes lanes by herself, fortunately ;-)</t>
+  </si>
+  <si>
+    <t>@pattyarquette @malcolmnance um, true about trump, but the porsche is not right example. 
+@tesla is crushing evs worldwide.  and the porsche in question is outperformed in several important areas.  
+but glad porsche has come to the party.   hope they do well.</t>
+  </si>
+  <si>
+    <t>im coming for you. make sure yall save me one https://t.co/isvob8ptis</t>
+  </si>
+  <si>
+    <t>our new #mooc on edx teaches you how to assess strategic options from an ethical perspective. instructor prof. salge illustrates the key points with a case study on tesla. join now - only on edx: https://t.co/645exk7zk0 https://t.co/ifzs9bzrty</t>
+  </si>
+  <si>
+    <t>indeed - thanks for accelerating the advent of sustainable transportation while providing the best consumer product ever produced yet! #tesla has won the race. thanks @elonmusk @tesla https://t.co/fg1cl1lytd</t>
+  </si>
+  <si>
+    <t>@tesla for saving our future from air pollution tesla take a very good step. in coming years we will see the good result against air pollution. hope in india we also see the ev vehicle running on the roads.</t>
+  </si>
+  <si>
+    <t>@doseofjewel they dont, they drive tesla’s</t>
+  </si>
+  <si>
+    <t>@wvwalkinhorses @realsaavedra its ok. the tesla pickup truck is about to be revealed.</t>
+  </si>
+  <si>
+    <t>tesla autopilot design 'led to' crash: https://t.co/l14eeodsfd</t>
+  </si>
+  <si>
+    <t>@teslatunity @tesla thanks!!</t>
+  </si>
+  <si>
+    <t>@duketomic me too except a tesla 😁</t>
+  </si>
+  <si>
+    <t>rt @thenextweb: another tesla crashes due to misuse of autopilot [updated] https://t.co/iof3oxqawn</t>
+  </si>
+  <si>
+    <t>rt @blindfolderg: swedish ai expert blames musk for tesla crashes, pushes unsafe tech to market. $tslaq $tsla (paywall) https://t.co/kwqlam…</t>
+  </si>
+  <si>
+    <t>@damianchristie @aotearoascience do some research on the environmental effects related to making battery.  226796 kg of excavated earth by fossil fuel machine then transported to be processed for a 540 kg tesla 75 battery.  or 420 kg excavated earth per kg of ev/ hybrid battery</t>
   </si>
 </sst>
 </file>
@@ -1745,497 +1756,492 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2" t="s">
-        <v>49</v>
+      <c r="A56" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -2295,222 +2301,222 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:1">
@@ -2525,237 +2531,237 @@
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="1:1">
@@ -2770,32 +2776,32 @@
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:1">
@@ -2805,432 +2811,432 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>6</v>
+      <c r="A234" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>3</v>
+        <v>196</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A56" r:id="rId1" location="mrahmedserougi%20https://t.co/xmobitcyux"/>
+    <hyperlink ref="A234" r:id="rId1" location="mrahmedserougi%20https://t.co/xmobitcyux"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3246,1007 +3252,1007 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>321</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>328</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>343</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>348</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>349</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>107</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>85</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>358</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>365</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>120</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>380</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>384</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>385</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>389</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>395</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Damiani\Desktop\Insper\2 Semestre\Ciência dos dados\Projeto2_CDados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7704D465-03B5-4CE0-8AB7-E0AA4E758AD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="395">
-  <si>
-    <t>Treinamento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="399">
   <si>
     <t>rt @bectcomputing: tesla's use of individual driver data for insurance 'state-by-state proposition' - reuters https://t.co/gxyp9wj66g https…</t>
   </si>
@@ -1359,12 +1362,27 @@
   <si>
     <t>@damianchristie @aotearoascience do some research on the environmental effects related to making battery.  226796 kg of excavated earth by fossil fuel machine then transported to be processed for a 540 kg tesla 75 battery.  or 420 kg excavated earth per kg of ev/ hybrid battery</t>
   </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>ruim</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>Tweets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,6 +1458,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1486,7 +1512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1518,9 +1544,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,6 +1596,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1727,2532 +1789,3016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="255.53125" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>96</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>72</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>167</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>173</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>174</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>175</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>176</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>177</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>178</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>179</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>91</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>94</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>24</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>26</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="2" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>31</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>141</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>72</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>108</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>103</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>91</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>26</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>89</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>31</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>96</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>26</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="B277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>62</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>26</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>96</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
-        <v>241</v>
+      <c r="B301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A234" r:id="rId1" location="mrahmedserougi%20https://t.co/xmobitcyux"/>
+    <hyperlink ref="A234" r:id="rId1" location="mrahmedserougi%20https://t.co/xmobitcyux" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A191" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="255.53125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Damiani\Desktop\Insper\2 Semestre\Ciência dos dados\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392ECA6D-9716-40DB-9CF0-A51DB2A5ADCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951C365-1B62-4FEF-9BAA-F6AD758BE3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3741,540 +3741,864 @@
       <c r="A101" t="s">
         <v>100</v>
       </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>101</v>
       </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>102</v>
       </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>103</v>
       </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>104</v>
       </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>105</v>
       </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>106</v>
       </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>109</v>
       </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>207</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
@@ -4289,75 +4613,120 @@
       <c r="A210" t="s">
         <v>209</v>
       </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>210</v>
       </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>211</v>
       </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>212</v>
       </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>213</v>
       </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>214</v>
       </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>215</v>
       </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>216</v>
       </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>217</v>
       </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>218</v>
       </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>219</v>
       </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>220</v>
       </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>222</v>
       </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
@@ -5515,7 +5884,7 @@
   <dimension ref="A1:A301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Damiani\Desktop\Insper\2 Semestre\Ciência dos dados\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951C365-1B62-4FEF-9BAA-F6AD758BE3D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD915CC-CD3A-4390-BC0C-D5CE4F2C8EC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="756">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5881,10 +5881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5893,802 +5893,1249 @@
     <col min="2" max="2" width="48.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>610</v>
       </c>

--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Damiani\Desktop\Insper\2 Semestre\Ciência dos dados\Projeto2_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Insper\Insper - 2 Semestre\Cincia dos dados\Projeto 2 - Twitter\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD915CC-CD3A-4390-BC0C-D5CE4F2C8EC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD4D556-DAC9-4858-8DB9-592D0E1ED41E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2570,7 +2570,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2587,7 +2587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2909,17 +2909,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226:B451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="133" customWidth="1"/>
-    <col min="2" max="2" width="44.9296875" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4737,462 +4737,735 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5200,674 +5473,1076 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5883,17 +6558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150:B153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.265625" customWidth="1"/>
-    <col min="2" max="2" width="48.796875" customWidth="1"/>
+    <col min="1" max="1" width="129.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -5901,7 +6576,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>452</v>
       </c>
@@ -5909,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -5917,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -5925,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -5933,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -5941,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -5949,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -5957,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -5965,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>460</v>
       </c>
@@ -5973,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>461</v>
       </c>
@@ -5981,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5989,7 +6664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>463</v>
       </c>
@@ -5997,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
@@ -6005,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -6013,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -6021,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -6029,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>468</v>
       </c>
@@ -6037,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -6045,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>470</v>
       </c>
@@ -6053,7 +6728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -6061,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -6069,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -6077,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>474</v>
       </c>
@@ -6085,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -6093,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>476</v>
       </c>
@@ -6101,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>477</v>
       </c>
@@ -6109,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -6117,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>479</v>
       </c>
@@ -6125,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>480</v>
       </c>
@@ -6133,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>481</v>
       </c>
@@ -6141,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -6149,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>483</v>
       </c>
@@ -6157,7 +6832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>484</v>
       </c>
@@ -6165,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>485</v>
       </c>
@@ -6173,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>486</v>
       </c>
@@ -6181,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>487</v>
       </c>
@@ -6189,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>488</v>
       </c>
@@ -6197,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -6205,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>490</v>
       </c>
@@ -6213,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -6221,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>492</v>
       </c>
@@ -6229,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>493</v>
       </c>
@@ -6237,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -6245,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>495</v>
       </c>
@@ -6253,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>496</v>
       </c>
@@ -6261,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -6269,7 +6944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>498</v>
       </c>
@@ -6277,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>499</v>
       </c>
@@ -6285,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>500</v>
       </c>
@@ -6293,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>501</v>
       </c>
@@ -6301,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>502</v>
       </c>
@@ -6309,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>503</v>
       </c>
@@ -6317,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>504</v>
       </c>
@@ -6325,7 +7000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>505</v>
       </c>
@@ -6333,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>506</v>
       </c>
@@ -6341,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>507</v>
       </c>
@@ -6349,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>508</v>
       </c>
@@ -6357,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>509</v>
       </c>
@@ -6365,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -6373,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>511</v>
       </c>
@@ -6381,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -6389,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>513</v>
       </c>
@@ -6397,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>514</v>
       </c>
@@ -6405,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>515</v>
       </c>
@@ -6413,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>516</v>
       </c>
@@ -6421,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>517</v>
       </c>
@@ -6429,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>518</v>
       </c>
@@ -6437,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>519</v>
       </c>
@@ -6445,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -6453,7 +7128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>521</v>
       </c>
@@ -6461,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -6469,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>523</v>
       </c>
@@ -6477,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>524</v>
       </c>
@@ -6485,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>525</v>
       </c>
@@ -6493,7 +7168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>526</v>
       </c>
@@ -6501,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>527</v>
       </c>
@@ -6509,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>528</v>
       </c>
@@ -6517,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>529</v>
       </c>
@@ -6525,7 +7200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>530</v>
       </c>
@@ -6533,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -6541,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>532</v>
       </c>
@@ -6549,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>533</v>
       </c>
@@ -6557,7 +7232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>534</v>
       </c>
@@ -6565,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -6573,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>536</v>
       </c>
@@ -6581,7 +7256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>537</v>
       </c>
@@ -6589,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>538</v>
       </c>
@@ -6597,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -6605,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>540</v>
       </c>
@@ -6613,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>541</v>
       </c>
@@ -6621,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>542</v>
       </c>
@@ -6629,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>543</v>
       </c>
@@ -6637,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>544</v>
       </c>
@@ -6645,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>545</v>
       </c>
@@ -6653,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>546</v>
       </c>
@@ -6661,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>547</v>
       </c>
@@ -6669,7 +7344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>548</v>
       </c>
@@ -6677,7 +7352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -6685,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>550</v>
       </c>
@@ -6693,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>551</v>
       </c>
@@ -6701,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>552</v>
       </c>
@@ -6709,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>553</v>
       </c>
@@ -6717,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>554</v>
       </c>
@@ -6725,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>555</v>
       </c>
@@ -6733,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>556</v>
       </c>
@@ -6741,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>557</v>
       </c>
@@ -6749,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>558</v>
       </c>
@@ -6757,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>559</v>
       </c>
@@ -6765,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>560</v>
       </c>
@@ -6773,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>561</v>
       </c>
@@ -6781,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>562</v>
       </c>
@@ -6789,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>563</v>
       </c>
@@ -6797,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>564</v>
       </c>
@@ -6805,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>565</v>
       </c>
@@ -6813,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>566</v>
       </c>
@@ -6821,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>567</v>
       </c>
@@ -6829,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>568</v>
       </c>
@@ -6837,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -6845,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>570</v>
       </c>
@@ -6853,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>571</v>
       </c>
@@ -6861,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>572</v>
       </c>
@@ -6869,7 +7544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>573</v>
       </c>
@@ -6877,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -6885,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>575</v>
       </c>
@@ -6893,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>576</v>
       </c>
@@ -6901,7 +7576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>577</v>
       </c>
@@ -6909,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>578</v>
       </c>
@@ -6917,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>579</v>
       </c>
@@ -6925,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>580</v>
       </c>
@@ -6933,7 +7608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>581</v>
       </c>
@@ -6941,7 +7616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>582</v>
       </c>
@@ -6949,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>583</v>
       </c>
@@ -6957,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>584</v>
       </c>
@@ -6965,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>585</v>
       </c>
@@ -6973,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>586</v>
       </c>
@@ -6981,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>587</v>
       </c>
@@ -6989,7 +7664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>588</v>
       </c>
@@ -6997,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -7005,7 +7680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -7013,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>591</v>
       </c>
@@ -7021,7 +7696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>592</v>
       </c>
@@ -7029,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>593</v>
       </c>
@@ -7037,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>594</v>
       </c>
@@ -7045,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>595</v>
       </c>
@@ -7053,7 +7728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>596</v>
       </c>
@@ -7061,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -7069,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>598</v>
       </c>
@@ -7077,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>599</v>
       </c>
@@ -7085,762 +7760,774 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>751</v>
       </c>

--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Insper\Insper - 2 Semestre\Cincia dos dados\Projeto 2 - Twitter\Projeto2_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Damiani\Desktop\Insper\2 Semestre\Ciência dos dados\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD4D556-DAC9-4858-8DB9-592D0E1ED41E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016C372C-E1D3-4C2B-A29A-99518E4AEF1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2570,7 +2570,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2587,7 +2587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2909,17 +2909,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226:B451"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="133" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -6558,17 +6558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B150" sqref="B150:B153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="129.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="129.265625" customWidth="1"/>
+    <col min="2" max="2" width="48.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>452</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>460</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>461</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>463</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>468</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>470</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>474</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>476</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>477</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>479</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>480</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>481</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>483</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>484</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>485</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>486</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>487</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>488</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>490</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>492</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>493</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>495</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>496</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>498</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>499</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>500</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>501</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>502</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>503</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>504</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>505</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>506</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>507</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>508</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>509</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>511</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>513</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>514</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>515</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>516</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>517</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>518</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>519</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>521</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>523</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>524</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>525</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>526</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>527</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>528</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>529</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>530</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>532</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>533</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>534</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>536</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>537</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>538</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>540</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>541</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>542</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>543</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>544</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>545</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>546</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>547</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>548</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>550</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>551</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>552</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>553</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>554</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>555</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>556</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>557</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>558</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>559</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>560</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>561</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>562</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>563</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>564</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>565</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>566</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>567</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>568</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>570</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>571</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>572</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>573</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>575</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>576</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>577</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>578</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>579</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>580</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>581</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>582</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>583</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>584</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>585</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>586</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>587</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>588</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>591</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>592</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>593</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>594</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>595</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>596</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>598</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>599</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>600</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>601</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>602</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>603</v>
       </c>
@@ -7792,742 +7792,742 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>751</v>
       </c>

--- a/Tesla.xlsx
+++ b/Tesla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico Damiani\Desktop\Insper\2 Semestre\Ciência dos dados\Projeto2_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Insper\Insper - 2 Semestre\Cincia dos dados\Projeto 2 - Twitter\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016C372C-E1D3-4C2B-A29A-99518E4AEF1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73001964-B256-4437-AD6F-50E32E8A31AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2570,7 +2570,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2587,7 +2587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2909,17 +2909,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226:B451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="133" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>251</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>356</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -6558,17 +6558,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:B153"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.265625" customWidth="1"/>
-    <col min="2" max="2" width="48.86328125" customWidth="1"/>
+    <col min="1" max="1" width="129.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>452</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>460</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>461</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>463</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>464</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>468</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>470</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>474</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>476</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>477</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>479</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>480</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>481</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>483</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>484</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>485</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>486</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>487</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>488</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>490</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>492</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>493</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>495</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>496</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>498</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>499</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>500</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>501</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>502</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>503</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>504</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>505</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>506</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>507</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>508</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>509</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>511</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>513</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>514</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>515</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>516</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>517</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>518</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>519</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>521</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>523</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>524</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>525</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>526</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>527</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>528</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>529</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>530</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>532</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>533</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>534</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>536</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>537</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>538</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>540</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>541</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>542</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>543</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>544</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>545</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>546</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>547</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>548</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>550</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>551</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>552</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>553</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>554</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>555</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>556</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>557</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>558</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>559</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>560</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>561</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>562</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>563</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>564</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>565</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>566</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>567</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>568</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>570</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>571</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>572</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>573</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>575</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>576</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>577</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>578</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>579</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>580</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>581</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>582</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>583</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>584</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>585</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>586</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>587</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>588</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>590</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>591</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>592</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>593</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>594</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>595</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>596</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>598</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>599</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>600</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>601</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>602</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>603</v>
       </c>
@@ -7792,744 +7792,1188 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>751</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
